--- a/Invoice Data AI.xlsx
+++ b/Invoice Data AI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dah47\ai-assistant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7E9FFF-DFC2-438B-A0AF-24F8E4FEE79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00123E74-41E3-4B40-B0D5-3AF8B8B3FA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31095" yWindow="3180" windowWidth="21600" windowHeight="11295" xr2:uid="{49206262-30D1-4364-9465-0B911BD659E6}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{49206262-30D1-4364-9465-0B911BD659E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice Data AI" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="587">
   <si>
     <t>Visit Type</t>
   </si>
@@ -1198,6 +1198,606 @@
   </si>
   <si>
     <t>Brunswick computer centre</t>
+  </si>
+  <si>
+    <t>VR049210941</t>
+  </si>
+  <si>
+    <t>BKUK - Newcastle Clayton St</t>
+  </si>
+  <si>
+    <t>VR049137658-2</t>
+  </si>
+  <si>
+    <t>Black Lion</t>
+  </si>
+  <si>
+    <t>VR049111025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The North Camp- Punch </t>
+  </si>
+  <si>
+    <t>VR049196408</t>
+  </si>
+  <si>
+    <t>Caffe Nero - Chester Foregate St</t>
+  </si>
+  <si>
+    <t>VR049222040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caffè Nero Salisbury </t>
+  </si>
+  <si>
+    <t>VR049226516</t>
+  </si>
+  <si>
+    <t>Caffè Nero  34 The Broadway</t>
+  </si>
+  <si>
+    <t>VR049196535</t>
+  </si>
+  <si>
+    <t>Caffe Nero - Chingford - 241</t>
+  </si>
+  <si>
+    <t>VR049190742</t>
+  </si>
+  <si>
+    <t>Caffe Nero - Euston Upper Woburn Place - 847</t>
+  </si>
+  <si>
+    <t>VR049069468</t>
+  </si>
+  <si>
+    <t>Brittania Inn</t>
+  </si>
+  <si>
+    <t>Greg Sparkes-Smith, Field Engineer</t>
+  </si>
+  <si>
+    <t>VR048890410</t>
+  </si>
+  <si>
+    <t>FINAL INVOICE EXTERNAL</t>
+  </si>
+  <si>
+    <t>Silvia Colombo</t>
+  </si>
+  <si>
+    <t>SW1W 8HE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZONE 2 DISH	£14.57, LNB WIDEBAND	£4.40, </t>
+  </si>
+  <si>
+    <t>Zone 2 and additional WB LNB for Sky Italia service, Sky UK equipment provided FOC.</t>
+  </si>
+  <si>
+    <t>VR049196675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caffè Nero Preston </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sb kfc support </t>
+  </si>
+  <si>
+    <t>VR049229849</t>
+  </si>
+  <si>
+    <t>KFC LUTON 10563</t>
+  </si>
+  <si>
+    <t>Ricky Hall, Gary Stother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65 Atlantic Blue £60, 65 Volcanic Grey £60, 55 Artic Silver £60, 43 Volcanic Grey, 65 Carbon Grey, 55 Sea Green, 55 Cotton White, Cat6 Cabling, TV Safety Strap, </t>
+  </si>
+  <si>
+    <t>VR049183626</t>
+  </si>
+  <si>
+    <t>GLL - Battersea Library</t>
+  </si>
+  <si>
+    <t>VR049189485</t>
+  </si>
+  <si>
+    <t>New Inn</t>
+  </si>
+  <si>
+    <t>VR049184219</t>
+  </si>
+  <si>
+    <t>GLL East End Pool</t>
+  </si>
+  <si>
+    <t>W20006597</t>
+  </si>
+  <si>
+    <t>VR049102872</t>
+  </si>
+  <si>
+    <t>The Barn / TPC Longslade Lane</t>
+  </si>
+  <si>
+    <t>Field Engineer</t>
+  </si>
+  <si>
+    <t>VR049194027</t>
+  </si>
+  <si>
+    <t>Mrs Maggie Gani</t>
+  </si>
+  <si>
+    <t>RG42 6B</t>
+  </si>
+  <si>
+    <t>VR049184219-2</t>
+  </si>
+  <si>
+    <t>Gll east side pool</t>
+  </si>
+  <si>
+    <t>W20004650</t>
+  </si>
+  <si>
+    <t>11164-0029</t>
+  </si>
+  <si>
+    <t>Perry Barr</t>
+  </si>
+  <si>
+    <t>B42 1AA</t>
+  </si>
+  <si>
+    <t>W20006572</t>
+  </si>
+  <si>
+    <t>VR049248962</t>
+  </si>
+  <si>
+    <t>Burger King South Shields</t>
+  </si>
+  <si>
+    <t>VR049230321</t>
+  </si>
+  <si>
+    <t>KFC - Dudley - 13401</t>
+  </si>
+  <si>
+    <t>VR049196858</t>
+  </si>
+  <si>
+    <t>Caffe Nero - Louth - 737</t>
+  </si>
+  <si>
+    <t>VR049189903</t>
+  </si>
+  <si>
+    <t>GLL - Hatfield Leisure Centre</t>
+  </si>
+  <si>
+    <t>W20005738</t>
+  </si>
+  <si>
+    <t>11164-0144</t>
+  </si>
+  <si>
+    <t>Manchester, Trafford 1</t>
+  </si>
+  <si>
+    <t>M17 8AA</t>
+  </si>
+  <si>
+    <t>VR049251785</t>
+  </si>
+  <si>
+    <t>Jhoots Pharmacy - Fox &amp; Goose</t>
+  </si>
+  <si>
+    <t>VR049255018</t>
+  </si>
+  <si>
+    <t>CN - Heathrow Terminal 2 Kiosk (602)</t>
+  </si>
+  <si>
+    <t>W20006627</t>
+  </si>
+  <si>
+    <t>00286-2243</t>
+  </si>
+  <si>
+    <t>COVENTRY</t>
+  </si>
+  <si>
+    <t>CV3 4RP</t>
+  </si>
+  <si>
+    <t>No fault found while on site</t>
+  </si>
+  <si>
+    <t>VR049214912</t>
+  </si>
+  <si>
+    <t>Harps Inn</t>
+  </si>
+  <si>
+    <t>VR049190346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KFC - London - 14003  O2 Arena, Unit 902 Peninsula Square London Greenwich SE10 0DX </t>
+  </si>
+  <si>
+    <t>33333-4499</t>
+  </si>
+  <si>
+    <t>Brent Cross</t>
+  </si>
+  <si>
+    <t>NW4 3FD</t>
+  </si>
+  <si>
+    <t>VR049181834</t>
+  </si>
+  <si>
+    <t>PlaceFirst - 82-100 Deansgate</t>
+  </si>
+  <si>
+    <t>VR049251824</t>
+  </si>
+  <si>
+    <t>Old Bulls Head</t>
+  </si>
+  <si>
+    <t>VR049233444</t>
+  </si>
+  <si>
+    <t>Birchwood Leisure Centre</t>
+  </si>
+  <si>
+    <t>VR049256702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caffè Nero Swansea </t>
+  </si>
+  <si>
+    <t>VR049230743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KFC Swindon </t>
+  </si>
+  <si>
+    <t>VR049257634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big licks </t>
+  </si>
+  <si>
+    <t>VR049259793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browns Manchester </t>
+  </si>
+  <si>
+    <t>VR049233328</t>
+  </si>
+  <si>
+    <t>Yarborough Leisure Centre</t>
+  </si>
+  <si>
+    <t>VR049264691</t>
+  </si>
+  <si>
+    <t>caffe nero forman st nottingham</t>
+  </si>
+  <si>
+    <t>VR049210254</t>
+  </si>
+  <si>
+    <t>VR049215537</t>
+  </si>
+  <si>
+    <t>Andy Harries</t>
+  </si>
+  <si>
+    <t>W4 4HD</t>
+  </si>
+  <si>
+    <t>VR049260885</t>
+  </si>
+  <si>
+    <t>BKUK-Warrington 2 - RWAR1711</t>
+  </si>
+  <si>
+    <t>VR049246505</t>
+  </si>
+  <si>
+    <t>BKUK - Colchester 2</t>
+  </si>
+  <si>
+    <t>W20006621</t>
+  </si>
+  <si>
+    <t>11164-0125</t>
+  </si>
+  <si>
+    <t>Telford 1</t>
+  </si>
+  <si>
+    <t>TF3 4BX</t>
+  </si>
+  <si>
+    <t>Air TV  volume issue</t>
+  </si>
+  <si>
+    <t>VR049265763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West riding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caffe nero Nottingham </t>
+  </si>
+  <si>
+    <t>VR049275029</t>
+  </si>
+  <si>
+    <t>KFC Oxford 705</t>
+  </si>
+  <si>
+    <t>VR049196510</t>
+  </si>
+  <si>
+    <t>Coffee#1 - Sutton Coldfield - 844081</t>
+  </si>
+  <si>
+    <t>VR049195790</t>
+  </si>
+  <si>
+    <t>Caffe Nero - Solihull - 521</t>
+  </si>
+  <si>
+    <t>VR049270603</t>
+  </si>
+  <si>
+    <t>Costa Coffee-Romney Town</t>
+  </si>
+  <si>
+    <t>VR049195869</t>
+  </si>
+  <si>
+    <t>Coffe#1 - Redditch - 844071</t>
+  </si>
+  <si>
+    <t>VR049196292</t>
+  </si>
+  <si>
+    <t>Caffe Nero - St Helens</t>
+  </si>
+  <si>
+    <t>W20006211</t>
+  </si>
+  <si>
+    <t>VR049215718</t>
+  </si>
+  <si>
+    <t>Cat inn</t>
+  </si>
+  <si>
+    <t>VR049210761</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 hour 46 minutes</t>
+  </si>
+  <si>
+    <t>VR049197387</t>
+  </si>
+  <si>
+    <t>Caffè Nero Newcastle st marys</t>
+  </si>
+  <si>
+    <t>Ricky Hall, Matt Phillip</t>
+  </si>
+  <si>
+    <t>MadFest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65 Volcanic Grey £60, </t>
+  </si>
+  <si>
+    <t>VR049198817</t>
+  </si>
+  <si>
+    <t>BKUK - Bolton - RBOL1087</t>
+  </si>
+  <si>
+    <t>VR049272061</t>
+  </si>
+  <si>
+    <t>Caffè Nero - South Shields</t>
+  </si>
+  <si>
+    <t>Competition Winner MadFest</t>
+  </si>
+  <si>
+    <t>SKY GLASS INSTALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competition Winner delivery and installation </t>
+  </si>
+  <si>
+    <t>VR049191212</t>
+  </si>
+  <si>
+    <t>KFC- Doncaster- 9210</t>
+  </si>
+  <si>
+    <t>VR049258762</t>
+  </si>
+  <si>
+    <t>KFC Bangor 3045</t>
+  </si>
+  <si>
+    <t>VR049197739</t>
+  </si>
+  <si>
+    <t>Caffe Nero - Upminster - 468</t>
+  </si>
+  <si>
+    <t>VR049197907</t>
+  </si>
+  <si>
+    <t>Caffe Nero - Lakeside - 123</t>
+  </si>
+  <si>
+    <t>KFC sb support</t>
+  </si>
+  <si>
+    <t>VR049131373-2</t>
+  </si>
+  <si>
+    <t>Village hotel hull</t>
+  </si>
+  <si>
+    <t>VR049197811</t>
+  </si>
+  <si>
+    <t>Caffe Nero - Staines - 509</t>
+  </si>
+  <si>
+    <t>VR049186725</t>
+  </si>
+  <si>
+    <t>Caffè Nero Wimbledon Village 510 High Street</t>
+  </si>
+  <si>
+    <t>James Damm</t>
+  </si>
+  <si>
+    <t>VR049309314</t>
+  </si>
+  <si>
+    <t>KFC - Chesterfield - 8624</t>
+  </si>
+  <si>
+    <t>VR049303753</t>
+  </si>
+  <si>
+    <t>Coffee#1-Epsom- 844117</t>
+  </si>
+  <si>
+    <t>VR049131418</t>
+  </si>
+  <si>
+    <t>Village Hotel - Newcastle</t>
+  </si>
+  <si>
+    <t>Shaun Lucan, Sean Harris</t>
+  </si>
+  <si>
+    <t>vr5666666</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>SGL SITE SURVEY</t>
+  </si>
+  <si>
+    <t>TW34 5gg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bracket; J Pole	£0.71, Extender; HDMI over Cat5 HD set	£41.67, </t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>VR000000002</t>
+  </si>
+  <si>
+    <t>OVO Hydro Arena</t>
+  </si>
+  <si>
+    <t>G3 8YW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Pole 420mm	£1.46, Splitter; HDMI 1x2 UHD	£31.05, </t>
+  </si>
+  <si>
+    <t>TEStT</t>
+  </si>
+  <si>
+    <t>VR049257273</t>
+  </si>
+  <si>
+    <t>West Wickham Library</t>
+  </si>
+  <si>
+    <t>W20006578</t>
+  </si>
+  <si>
+    <t>11164-4002</t>
+  </si>
+  <si>
+    <t>Gateshead</t>
+  </si>
+  <si>
+    <t>NE11 9YG</t>
+  </si>
+  <si>
+    <t>VR049304611</t>
+  </si>
+  <si>
+    <t>GOAT Sports Bar</t>
+  </si>
+  <si>
+    <t>VR049196277</t>
+  </si>
+  <si>
+    <t>Caffe Nero - Borough High St - 708</t>
+  </si>
+  <si>
+    <t>VR049320735</t>
+  </si>
+  <si>
+    <t>KFC Unit 1 Castle View Retail Park</t>
+  </si>
+  <si>
+    <t>W20005871</t>
+  </si>
+  <si>
+    <t>11164-0364</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>OL16 1BA</t>
+  </si>
+  <si>
+    <t>£8:40</t>
+  </si>
+  <si>
+    <t>VR049196086</t>
+  </si>
+  <si>
+    <t>Caffe Nero - Golden Hind - 330</t>
+  </si>
+  <si>
+    <t>VR049196039</t>
+  </si>
+  <si>
+    <t>Caffè Nero Crawley 525</t>
+  </si>
+  <si>
+    <t>VR049325777</t>
+  </si>
+  <si>
+    <t>KFC - Nottingham - Long Row West - 3044</t>
   </si>
 </sst>
 </file>
@@ -1801,7 +2401,14 @@
       <sheetName val="Sheet14"/>
       <sheetName val="Tier 2 Master"/>
       <sheetName val="Tier 2 Breakdown"/>
+      <sheetName val="activate deactivate"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Detail1"/>
+      <sheetName val="Detail2"/>
+      <sheetName val="Detail3"/>
+      <sheetName val="Recharges Q2"/>
       <sheetName val="Sheet15"/>
+      <sheetName val="Sheet7"/>
       <sheetName val="Sheet12"/>
       <sheetName val="Sheet13"/>
       <sheetName val="Tier 2 Eng Data Tables"/>
@@ -1821,7 +2428,6 @@
       <sheetName val="Event Capture Finance"/>
       <sheetName val="VIP Invoice"/>
       <sheetName val="Sky Business Finance"/>
-      <sheetName val="Sheet7"/>
       <sheetName val="Sheet11"/>
       <sheetName val="Sky Business Cover Finance"/>
       <sheetName val="Missing SB cover Invoices"/>
@@ -1880,14 +2486,20 @@
       <sheetData sheetId="44"/>
       <sheetData sheetId="45"/>
       <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3742779F-567B-41EA-8A4D-2496A8889F6B}" name="Table1" displayName="Table1" ref="A1:W299" totalsRowShown="0">
-  <autoFilter ref="A1:W299" xr:uid="{3742779F-567B-41EA-8A4D-2496A8889F6B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3742779F-567B-41EA-8A4D-2496A8889F6B}" name="Table1" displayName="Table1" ref="A1:W493" totalsRowShown="0">
+  <autoFilter ref="A1:W493" xr:uid="{3742779F-567B-41EA-8A4D-2496A8889F6B}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{912301C6-F322-4078-B308-D5A2A8BD40B1}" name="Visit Type"/>
     <tableColumn id="2" xr3:uid="{0106C607-82BA-4234-B70B-1DC1B069ABC2}" name="Department"/>
@@ -2234,10 +2846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDCC8F2-6657-489D-AFF8-86E549BB42EA}">
-  <dimension ref="A1:W299"/>
+  <dimension ref="A1:W493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:W299"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:W493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11879,6 +12491,6335 @@
         <v>216</v>
       </c>
     </row>
+    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>38</v>
+      </c>
+      <c r="C300" t="s">
+        <v>129</v>
+      </c>
+      <c r="D300" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E300" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="K300" t="s">
+        <v>40</v>
+      </c>
+      <c r="P300" s="2">
+        <v>25569.118055555598</v>
+      </c>
+      <c r="S300" s="3"/>
+      <c r="T300" s="3">
+        <v>345</v>
+      </c>
+      <c r="U300" s="3"/>
+      <c r="V300" s="3"/>
+      <c r="W300" s="3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>38</v>
+      </c>
+      <c r="C301" t="s">
+        <v>90</v>
+      </c>
+      <c r="D301" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E301" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="K301" t="s">
+        <v>135</v>
+      </c>
+      <c r="P301" s="2">
+        <v>25568.961805555598</v>
+      </c>
+      <c r="S301" s="3"/>
+      <c r="T301" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="U301" s="3"/>
+      <c r="V301" s="3"/>
+      <c r="W301" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>105</v>
+      </c>
+      <c r="C302" t="s">
+        <v>90</v>
+      </c>
+      <c r="D302" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E302" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="J302" t="s">
+        <v>213</v>
+      </c>
+      <c r="P302" s="2">
+        <v>25569.375</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>183</v>
+      </c>
+      <c r="R302" t="s">
+        <v>183</v>
+      </c>
+      <c r="S302" s="3">
+        <v>0</v>
+      </c>
+      <c r="T302" s="3">
+        <v>810</v>
+      </c>
+      <c r="U302" s="3"/>
+      <c r="V302" s="3"/>
+      <c r="W302" s="3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>38</v>
+      </c>
+      <c r="C303" t="s">
+        <v>39</v>
+      </c>
+      <c r="D303" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E303" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="K303" t="s">
+        <v>135</v>
+      </c>
+      <c r="P303" s="2">
+        <v>25568.980555555601</v>
+      </c>
+      <c r="S303" s="3"/>
+      <c r="T303" s="3">
+        <v>48</v>
+      </c>
+      <c r="U303" s="3"/>
+      <c r="V303" s="3"/>
+      <c r="W303" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>38</v>
+      </c>
+      <c r="C304" t="s">
+        <v>39</v>
+      </c>
+      <c r="D304" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E304" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="K304" t="s">
+        <v>46</v>
+      </c>
+      <c r="P304" s="2">
+        <v>25569.2479166667</v>
+      </c>
+      <c r="S304" s="3"/>
+      <c r="T304" s="3">
+        <v>625.5</v>
+      </c>
+      <c r="U304" s="3"/>
+      <c r="V304" s="3"/>
+      <c r="W304" s="3">
+        <v>625.5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>25</v>
+      </c>
+      <c r="C305" t="s">
+        <v>129</v>
+      </c>
+      <c r="D305" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E305" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="F305" t="s">
+        <v>387</v>
+      </c>
+      <c r="J305" t="s">
+        <v>388</v>
+      </c>
+      <c r="K305" t="s">
+        <v>72</v>
+      </c>
+      <c r="P305" s="2">
+        <v>25569.020833333299</v>
+      </c>
+      <c r="S305" s="3"/>
+      <c r="T305" s="3"/>
+      <c r="U305" s="3"/>
+      <c r="V305" s="3"/>
+      <c r="W305" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>25</v>
+      </c>
+      <c r="C306" t="s">
+        <v>48</v>
+      </c>
+      <c r="D306" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E306" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="F306" t="s">
+        <v>389</v>
+      </c>
+      <c r="J306" t="s">
+        <v>390</v>
+      </c>
+      <c r="K306" t="s">
+        <v>28</v>
+      </c>
+      <c r="P306" s="2">
+        <v>25569.194444444402</v>
+      </c>
+      <c r="S306" s="3"/>
+      <c r="T306" s="3"/>
+      <c r="U306" s="3"/>
+      <c r="V306" s="3"/>
+      <c r="W306" s="3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>25</v>
+      </c>
+      <c r="C307" t="s">
+        <v>43</v>
+      </c>
+      <c r="D307" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E307" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="F307" t="s">
+        <v>391</v>
+      </c>
+      <c r="J307" t="s">
+        <v>392</v>
+      </c>
+      <c r="K307" t="s">
+        <v>28</v>
+      </c>
+      <c r="P307" s="2">
+        <v>25569.241666666701</v>
+      </c>
+      <c r="S307" s="3"/>
+      <c r="T307" s="3"/>
+      <c r="U307" s="3"/>
+      <c r="V307" s="3"/>
+      <c r="W307" s="3">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>22</v>
+      </c>
+      <c r="C308" t="s">
+        <v>129</v>
+      </c>
+      <c r="D308" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E308" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="K308" t="s">
+        <v>24</v>
+      </c>
+      <c r="P308" s="2">
+        <v>25569.046527777798</v>
+      </c>
+      <c r="S308" s="3"/>
+      <c r="T308" s="3"/>
+      <c r="U308" s="3"/>
+      <c r="V308" s="3"/>
+      <c r="W308" s="3">
+        <v>190.5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>38</v>
+      </c>
+      <c r="C309" t="s">
+        <v>57</v>
+      </c>
+      <c r="D309" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E309" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="K309" t="s">
+        <v>40</v>
+      </c>
+      <c r="P309" s="2">
+        <v>25569.333333333299</v>
+      </c>
+      <c r="S309" s="3"/>
+      <c r="T309" s="3">
+        <v>810</v>
+      </c>
+      <c r="U309" s="3"/>
+      <c r="V309" s="3"/>
+      <c r="W309" s="3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>25</v>
+      </c>
+      <c r="C310" t="s">
+        <v>41</v>
+      </c>
+      <c r="D310" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E310" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="F310" t="s">
+        <v>393</v>
+      </c>
+      <c r="J310" t="s">
+        <v>394</v>
+      </c>
+      <c r="K310" t="s">
+        <v>143</v>
+      </c>
+      <c r="P310" s="2">
+        <v>25569.109722222202</v>
+      </c>
+      <c r="S310" s="3"/>
+      <c r="T310" s="3"/>
+      <c r="U310" s="3"/>
+      <c r="V310" s="3"/>
+      <c r="W310" s="3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>22</v>
+      </c>
+      <c r="C311" t="s">
+        <v>56</v>
+      </c>
+      <c r="D311" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E311" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="K311" t="s">
+        <v>49</v>
+      </c>
+      <c r="P311" s="2">
+        <v>25569.3527777778</v>
+      </c>
+      <c r="S311" s="3"/>
+      <c r="T311" s="3"/>
+      <c r="U311" s="3"/>
+      <c r="V311" s="3"/>
+      <c r="W311" s="3">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>22</v>
+      </c>
+      <c r="C312" t="s">
+        <v>23</v>
+      </c>
+      <c r="D312" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E312" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="K312" t="s">
+        <v>24</v>
+      </c>
+      <c r="P312" s="2">
+        <v>25569.1652777778</v>
+      </c>
+      <c r="S312" s="3"/>
+      <c r="T312" s="3"/>
+      <c r="U312" s="3"/>
+      <c r="V312" s="3"/>
+      <c r="W312" s="3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>38</v>
+      </c>
+      <c r="C313" t="s">
+        <v>53</v>
+      </c>
+      <c r="D313" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E313" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="K313" t="s">
+        <v>278</v>
+      </c>
+      <c r="P313" s="2">
+        <v>25569.2902777778</v>
+      </c>
+      <c r="S313" s="3"/>
+      <c r="T313" s="3">
+        <v>717</v>
+      </c>
+      <c r="U313" s="3"/>
+      <c r="V313" s="3"/>
+      <c r="W313" s="3">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>22</v>
+      </c>
+      <c r="C314" t="s">
+        <v>198</v>
+      </c>
+      <c r="D314" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E314" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="K314" t="s">
+        <v>62</v>
+      </c>
+      <c r="P314" s="2">
+        <v>25569.1138888889</v>
+      </c>
+      <c r="S314" s="3"/>
+      <c r="T314" s="3"/>
+      <c r="U314" s="3"/>
+      <c r="V314" s="3"/>
+      <c r="W314" s="3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>63</v>
+      </c>
+      <c r="C315" t="s">
+        <v>198</v>
+      </c>
+      <c r="D315" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E315" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="F315" t="s">
+        <v>395</v>
+      </c>
+      <c r="J315" t="s">
+        <v>396</v>
+      </c>
+      <c r="K315" t="s">
+        <v>78</v>
+      </c>
+      <c r="P315" s="2"/>
+      <c r="S315" s="3"/>
+      <c r="T315" s="3"/>
+      <c r="U315" s="3"/>
+      <c r="V315" s="3"/>
+      <c r="W315" s="3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>38</v>
+      </c>
+      <c r="C316" t="s">
+        <v>39</v>
+      </c>
+      <c r="D316" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E316" s="1">
+        <v>45813.958333333299</v>
+      </c>
+      <c r="K316" t="s">
+        <v>148</v>
+      </c>
+      <c r="P316" s="2">
+        <v>25569.004861111101</v>
+      </c>
+      <c r="S316" s="3"/>
+      <c r="T316" s="3">
+        <v>100.5</v>
+      </c>
+      <c r="U316" s="3"/>
+      <c r="V316" s="3"/>
+      <c r="W316" s="3">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>38</v>
+      </c>
+      <c r="C317" t="s">
+        <v>88</v>
+      </c>
+      <c r="D317" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E317" s="1">
+        <v>45813.958333333299</v>
+      </c>
+      <c r="K317" t="s">
+        <v>42</v>
+      </c>
+      <c r="P317" s="2">
+        <v>25569.013888888901</v>
+      </c>
+      <c r="S317" s="3"/>
+      <c r="T317" s="3">
+        <v>120</v>
+      </c>
+      <c r="U317" s="3"/>
+      <c r="V317" s="3"/>
+      <c r="W317" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>63</v>
+      </c>
+      <c r="C318" t="s">
+        <v>198</v>
+      </c>
+      <c r="D318" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E318" s="1">
+        <v>45813.958333333299</v>
+      </c>
+      <c r="F318" t="s">
+        <v>397</v>
+      </c>
+      <c r="J318" t="s">
+        <v>398</v>
+      </c>
+      <c r="K318" t="s">
+        <v>66</v>
+      </c>
+      <c r="P318" s="2"/>
+      <c r="S318" s="3"/>
+      <c r="T318" s="3"/>
+      <c r="U318" s="3"/>
+      <c r="V318" s="3"/>
+      <c r="W318" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>38</v>
+      </c>
+      <c r="C319" t="s">
+        <v>102</v>
+      </c>
+      <c r="D319" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E319" s="1">
+        <v>45813.958333333299</v>
+      </c>
+      <c r="K319" t="s">
+        <v>135</v>
+      </c>
+      <c r="P319" s="2">
+        <v>25568.96875</v>
+      </c>
+      <c r="S319" s="3"/>
+      <c r="T319" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="U319" s="3"/>
+      <c r="V319" s="3"/>
+      <c r="W319" s="3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>38</v>
+      </c>
+      <c r="C320" t="s">
+        <v>102</v>
+      </c>
+      <c r="D320" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E320" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="K320" t="s">
+        <v>135</v>
+      </c>
+      <c r="P320" s="2">
+        <v>25568.96875</v>
+      </c>
+      <c r="S320" s="3"/>
+      <c r="T320" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="U320" s="3"/>
+      <c r="V320" s="3"/>
+      <c r="W320" s="3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>38</v>
+      </c>
+      <c r="C321" t="s">
+        <v>102</v>
+      </c>
+      <c r="D321" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E321" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="K321" t="s">
+        <v>46</v>
+      </c>
+      <c r="P321" s="2">
+        <v>25569.194444444402</v>
+      </c>
+      <c r="S321" s="3"/>
+      <c r="T321" s="3">
+        <v>510</v>
+      </c>
+      <c r="U321" s="3"/>
+      <c r="V321" s="3"/>
+      <c r="W321" s="3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>38</v>
+      </c>
+      <c r="C322" t="s">
+        <v>39</v>
+      </c>
+      <c r="D322" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E322" s="1">
+        <v>45813.958333333299</v>
+      </c>
+      <c r="K322" t="s">
+        <v>46</v>
+      </c>
+      <c r="P322" s="2">
+        <v>25569.0402777778</v>
+      </c>
+      <c r="S322" s="3"/>
+      <c r="T322" s="3">
+        <v>177</v>
+      </c>
+      <c r="U322" s="3"/>
+      <c r="V322" s="3"/>
+      <c r="W322" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>38</v>
+      </c>
+      <c r="C323" t="s">
+        <v>102</v>
+      </c>
+      <c r="D323" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E323" s="1">
+        <v>45813.958333333299</v>
+      </c>
+      <c r="K323" t="s">
+        <v>46</v>
+      </c>
+      <c r="P323" s="2">
+        <v>25569.206249999999</v>
+      </c>
+      <c r="S323" s="3"/>
+      <c r="T323" s="3">
+        <v>535.5</v>
+      </c>
+      <c r="U323" s="3"/>
+      <c r="V323" s="3"/>
+      <c r="W323" s="3">
+        <v>535.5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>25</v>
+      </c>
+      <c r="C324" t="s">
+        <v>53</v>
+      </c>
+      <c r="D324" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E324" s="1">
+        <v>45813.958333333299</v>
+      </c>
+      <c r="F324" t="s">
+        <v>399</v>
+      </c>
+      <c r="J324" t="s">
+        <v>400</v>
+      </c>
+      <c r="K324" t="s">
+        <v>143</v>
+      </c>
+      <c r="P324" s="2">
+        <v>25569.074305555601</v>
+      </c>
+      <c r="S324" s="3"/>
+      <c r="T324" s="3"/>
+      <c r="U324" s="3"/>
+      <c r="V324" s="3"/>
+      <c r="W324" s="3">
+        <v>250.5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>25</v>
+      </c>
+      <c r="C325" t="s">
+        <v>88</v>
+      </c>
+      <c r="D325" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E325" s="1">
+        <v>45813.958333333299</v>
+      </c>
+      <c r="F325" t="s">
+        <v>401</v>
+      </c>
+      <c r="J325" t="s">
+        <v>402</v>
+      </c>
+      <c r="K325" t="s">
+        <v>28</v>
+      </c>
+      <c r="P325" s="2">
+        <v>25569.118750000001</v>
+      </c>
+      <c r="S325" s="3"/>
+      <c r="T325" s="3"/>
+      <c r="U325" s="3"/>
+      <c r="V325" s="3"/>
+      <c r="W325" s="3">
+        <v>346.5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>25</v>
+      </c>
+      <c r="C326" t="s">
+        <v>57</v>
+      </c>
+      <c r="D326" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E326" s="1">
+        <v>45813.958333333299</v>
+      </c>
+      <c r="F326" t="s">
+        <v>403</v>
+      </c>
+      <c r="J326" t="s">
+        <v>404</v>
+      </c>
+      <c r="K326" t="s">
+        <v>28</v>
+      </c>
+      <c r="P326" s="2">
+        <v>25569.278472222199</v>
+      </c>
+      <c r="S326" s="3"/>
+      <c r="T326" s="3"/>
+      <c r="U326" s="3"/>
+      <c r="V326" s="3"/>
+      <c r="W326" s="3">
+        <v>691.5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>190</v>
+      </c>
+      <c r="C327" t="s">
+        <v>405</v>
+      </c>
+      <c r="D327" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E327" s="1">
+        <v>45813.958333333299</v>
+      </c>
+      <c r="F327" t="s">
+        <v>406</v>
+      </c>
+      <c r="H327" t="s">
+        <v>407</v>
+      </c>
+      <c r="M327" t="s">
+        <v>408</v>
+      </c>
+      <c r="N327" t="s">
+        <v>194</v>
+      </c>
+      <c r="O327" t="s">
+        <v>409</v>
+      </c>
+      <c r="P327" s="2">
+        <v>25569.388888888901</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>410</v>
+      </c>
+      <c r="R327" t="s">
+        <v>411</v>
+      </c>
+      <c r="S327" s="3">
+        <v>18.97</v>
+      </c>
+      <c r="T327" s="3">
+        <v>1116</v>
+      </c>
+      <c r="U327" s="3"/>
+      <c r="V327" s="3">
+        <v>0</v>
+      </c>
+      <c r="W327" s="3">
+        <v>1134.97</v>
+      </c>
+    </row>
+    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>22</v>
+      </c>
+      <c r="C328" t="s">
+        <v>23</v>
+      </c>
+      <c r="D328" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E328" s="1">
+        <v>45813.958333333299</v>
+      </c>
+      <c r="K328" t="s">
+        <v>24</v>
+      </c>
+      <c r="P328" s="2">
+        <v>25569.35</v>
+      </c>
+      <c r="S328" s="3"/>
+      <c r="T328" s="3"/>
+      <c r="U328" s="3"/>
+      <c r="V328" s="3"/>
+      <c r="W328" s="3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>25</v>
+      </c>
+      <c r="C329" t="s">
+        <v>41</v>
+      </c>
+      <c r="D329" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E329" s="1">
+        <v>45813.958333333299</v>
+      </c>
+      <c r="F329" t="s">
+        <v>412</v>
+      </c>
+      <c r="J329" t="s">
+        <v>413</v>
+      </c>
+      <c r="K329" t="s">
+        <v>143</v>
+      </c>
+      <c r="P329" s="2">
+        <v>25569.039583333299</v>
+      </c>
+      <c r="S329" s="3"/>
+      <c r="T329" s="3"/>
+      <c r="U329" s="3"/>
+      <c r="V329" s="3"/>
+      <c r="W329" s="3">
+        <v>175.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>105</v>
+      </c>
+      <c r="C330" t="s">
+        <v>90</v>
+      </c>
+      <c r="D330" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E330" s="1">
+        <v>45812.958333333299</v>
+      </c>
+      <c r="J330" t="s">
+        <v>414</v>
+      </c>
+      <c r="P330" s="2">
+        <v>25569.375</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>183</v>
+      </c>
+      <c r="R330" t="s">
+        <v>183</v>
+      </c>
+      <c r="S330" s="3">
+        <v>0</v>
+      </c>
+      <c r="T330" s="3">
+        <v>810</v>
+      </c>
+      <c r="U330" s="3"/>
+      <c r="V330" s="3"/>
+      <c r="W330" s="3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>63</v>
+      </c>
+      <c r="C331" t="s">
+        <v>198</v>
+      </c>
+      <c r="D331" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E331" s="1">
+        <v>45814.958333333299</v>
+      </c>
+      <c r="F331" t="s">
+        <v>415</v>
+      </c>
+      <c r="J331" t="s">
+        <v>416</v>
+      </c>
+      <c r="K331" t="s">
+        <v>66</v>
+      </c>
+      <c r="P331" s="2"/>
+      <c r="S331" s="3"/>
+      <c r="T331" s="3"/>
+      <c r="U331" s="3"/>
+      <c r="V331" s="3"/>
+      <c r="W331" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>38</v>
+      </c>
+      <c r="C332" t="s">
+        <v>102</v>
+      </c>
+      <c r="D332" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E332" s="1">
+        <v>45813.958333333299</v>
+      </c>
+      <c r="K332" t="s">
+        <v>278</v>
+      </c>
+      <c r="P332" s="2">
+        <v>25568.958333333299</v>
+      </c>
+      <c r="S332" s="3"/>
+      <c r="T332" s="3">
+        <v>237</v>
+      </c>
+      <c r="U332" s="3"/>
+      <c r="V332" s="3"/>
+      <c r="W332" s="3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>38</v>
+      </c>
+      <c r="C333" t="s">
+        <v>102</v>
+      </c>
+      <c r="D333" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E333" s="1">
+        <v>45813.958333333299</v>
+      </c>
+      <c r="K333" t="s">
+        <v>46</v>
+      </c>
+      <c r="P333" s="2">
+        <v>25568.958333333299</v>
+      </c>
+      <c r="S333" s="3"/>
+      <c r="T333" s="3">
+        <v>535.5</v>
+      </c>
+      <c r="U333" s="3"/>
+      <c r="V333" s="3"/>
+      <c r="W333" s="3">
+        <v>535.5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>29</v>
+      </c>
+      <c r="C334" t="s">
+        <v>417</v>
+      </c>
+      <c r="D334" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E334" s="1">
+        <v>45809.958333333299</v>
+      </c>
+      <c r="H334" t="s">
+        <v>32</v>
+      </c>
+      <c r="L334">
+        <v>2000121459</v>
+      </c>
+      <c r="M334" t="s">
+        <v>120</v>
+      </c>
+      <c r="N334" t="s">
+        <v>34</v>
+      </c>
+      <c r="O334" t="s">
+        <v>121</v>
+      </c>
+      <c r="P334" s="2">
+        <v>25568.958333333299</v>
+      </c>
+      <c r="Q334" t="s">
+        <v>418</v>
+      </c>
+      <c r="S334" s="3">
+        <v>695.42</v>
+      </c>
+      <c r="T334" s="3">
+        <v>4320</v>
+      </c>
+      <c r="U334" s="3"/>
+      <c r="V334" s="3">
+        <v>0</v>
+      </c>
+      <c r="W334" s="3">
+        <v>5015.42</v>
+      </c>
+    </row>
+    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>38</v>
+      </c>
+      <c r="C335" t="s">
+        <v>198</v>
+      </c>
+      <c r="D335" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E335" s="1">
+        <v>45814.958333333299</v>
+      </c>
+      <c r="K335" t="s">
+        <v>148</v>
+      </c>
+      <c r="P335" s="2">
+        <v>25569</v>
+      </c>
+      <c r="S335" s="3"/>
+      <c r="T335" s="3">
+        <v>90</v>
+      </c>
+      <c r="U335" s="3"/>
+      <c r="V335" s="3"/>
+      <c r="W335" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>38</v>
+      </c>
+      <c r="C336" t="s">
+        <v>39</v>
+      </c>
+      <c r="D336" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E336" s="1">
+        <v>45814.958333333299</v>
+      </c>
+      <c r="K336" t="s">
+        <v>278</v>
+      </c>
+      <c r="P336" s="2">
+        <v>25569.1743055556</v>
+      </c>
+      <c r="S336" s="3"/>
+      <c r="T336" s="3">
+        <v>466.5</v>
+      </c>
+      <c r="U336" s="3"/>
+      <c r="V336" s="3"/>
+      <c r="W336" s="3">
+        <v>466.5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>25</v>
+      </c>
+      <c r="C337" t="s">
+        <v>88</v>
+      </c>
+      <c r="D337" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E337" s="1">
+        <v>45814.958333333299</v>
+      </c>
+      <c r="F337" t="s">
+        <v>419</v>
+      </c>
+      <c r="J337" t="s">
+        <v>420</v>
+      </c>
+      <c r="K337" t="s">
+        <v>28</v>
+      </c>
+      <c r="P337" s="2">
+        <v>25569.143749999999</v>
+      </c>
+      <c r="S337" s="3"/>
+      <c r="T337" s="3"/>
+      <c r="U337" s="3"/>
+      <c r="V337" s="3"/>
+      <c r="W337" s="3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>25</v>
+      </c>
+      <c r="C338" t="s">
+        <v>41</v>
+      </c>
+      <c r="D338" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E338" s="1">
+        <v>45814.958333333299</v>
+      </c>
+      <c r="F338" t="s">
+        <v>421</v>
+      </c>
+      <c r="J338" t="s">
+        <v>422</v>
+      </c>
+      <c r="K338" t="s">
+        <v>28</v>
+      </c>
+      <c r="P338" s="2">
+        <v>25569.055555555598</v>
+      </c>
+      <c r="S338" s="3"/>
+      <c r="T338" s="3"/>
+      <c r="U338" s="3"/>
+      <c r="V338" s="3"/>
+      <c r="W338" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>38</v>
+      </c>
+      <c r="C339" t="s">
+        <v>41</v>
+      </c>
+      <c r="D339" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E339" s="1">
+        <v>45814.958333333299</v>
+      </c>
+      <c r="K339" t="s">
+        <v>42</v>
+      </c>
+      <c r="P339" s="2">
+        <v>25568.975694444402</v>
+      </c>
+      <c r="S339" s="3"/>
+      <c r="T339" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="U339" s="3"/>
+      <c r="V339" s="3"/>
+      <c r="W339" s="3">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>25</v>
+      </c>
+      <c r="C340" t="s">
+        <v>57</v>
+      </c>
+      <c r="D340" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E340" s="1">
+        <v>45814.958333333299</v>
+      </c>
+      <c r="F340" t="s">
+        <v>423</v>
+      </c>
+      <c r="J340" t="s">
+        <v>424</v>
+      </c>
+      <c r="K340" t="s">
+        <v>28</v>
+      </c>
+      <c r="P340" s="2">
+        <v>25569.25</v>
+      </c>
+      <c r="S340" s="3"/>
+      <c r="T340" s="3"/>
+      <c r="U340" s="3"/>
+      <c r="V340" s="3"/>
+      <c r="W340" s="3"/>
+    </row>
+    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>38</v>
+      </c>
+      <c r="C341" t="s">
+        <v>39</v>
+      </c>
+      <c r="D341" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E341" s="1">
+        <v>45814.958333333299</v>
+      </c>
+      <c r="K341" t="s">
+        <v>42</v>
+      </c>
+      <c r="P341" s="2">
+        <v>25568.965972222199</v>
+      </c>
+      <c r="S341" s="3"/>
+      <c r="T341" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="U341" s="3"/>
+      <c r="V341" s="3"/>
+      <c r="W341" s="3">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>95</v>
+      </c>
+      <c r="C342" t="s">
+        <v>56</v>
+      </c>
+      <c r="D342" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E342" s="1">
+        <v>45814.958333333299</v>
+      </c>
+      <c r="G342" t="s">
+        <v>425</v>
+      </c>
+      <c r="I342" t="s">
+        <v>356</v>
+      </c>
+      <c r="J342" t="s">
+        <v>357</v>
+      </c>
+      <c r="K342" t="s">
+        <v>225</v>
+      </c>
+      <c r="O342" t="s">
+        <v>358</v>
+      </c>
+      <c r="P342" s="2">
+        <v>25568.979166666701</v>
+      </c>
+      <c r="S342" s="3"/>
+      <c r="T342" s="3">
+        <v>45</v>
+      </c>
+      <c r="U342" s="3"/>
+      <c r="V342" s="3"/>
+      <c r="W342" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>22</v>
+      </c>
+      <c r="C343" t="s">
+        <v>56</v>
+      </c>
+      <c r="D343" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E343" s="1">
+        <v>45813.958333333299</v>
+      </c>
+      <c r="K343" t="s">
+        <v>49</v>
+      </c>
+      <c r="P343" s="2">
+        <v>25569.351388888899</v>
+      </c>
+      <c r="S343" s="3"/>
+      <c r="T343" s="3"/>
+      <c r="U343" s="3"/>
+      <c r="V343" s="3"/>
+      <c r="W343" s="3">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>25</v>
+      </c>
+      <c r="C344" t="s">
+        <v>53</v>
+      </c>
+      <c r="D344" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E344" s="1">
+        <v>45814.958333333299</v>
+      </c>
+      <c r="F344" t="s">
+        <v>426</v>
+      </c>
+      <c r="J344" t="s">
+        <v>427</v>
+      </c>
+      <c r="K344" t="s">
+        <v>28</v>
+      </c>
+      <c r="P344" s="2">
+        <v>25569.218055555601</v>
+      </c>
+      <c r="S344" s="3"/>
+      <c r="T344" s="3"/>
+      <c r="U344" s="3"/>
+      <c r="V344" s="3"/>
+      <c r="W344" s="3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>22</v>
+      </c>
+      <c r="C345" t="s">
+        <v>90</v>
+      </c>
+      <c r="D345" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E345" s="1">
+        <v>45814.958333333299</v>
+      </c>
+      <c r="K345" t="s">
+        <v>62</v>
+      </c>
+      <c r="P345" s="2">
+        <v>25569.375</v>
+      </c>
+      <c r="S345" s="3"/>
+      <c r="T345" s="3"/>
+      <c r="U345" s="3"/>
+      <c r="V345" s="3"/>
+      <c r="W345" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>190</v>
+      </c>
+      <c r="C346" t="s">
+        <v>428</v>
+      </c>
+      <c r="D346" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E346" s="1">
+        <v>45814.958333333299</v>
+      </c>
+      <c r="F346" t="s">
+        <v>429</v>
+      </c>
+      <c r="H346" t="s">
+        <v>407</v>
+      </c>
+      <c r="M346" t="s">
+        <v>430</v>
+      </c>
+      <c r="N346" t="s">
+        <v>194</v>
+      </c>
+      <c r="O346" t="s">
+        <v>431</v>
+      </c>
+      <c r="P346" s="2">
+        <v>25569</v>
+      </c>
+      <c r="S346" s="3">
+        <v>0</v>
+      </c>
+      <c r="T346" s="3">
+        <v>108</v>
+      </c>
+      <c r="U346" s="3"/>
+      <c r="V346" s="3">
+        <v>0</v>
+      </c>
+      <c r="W346" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>25</v>
+      </c>
+      <c r="C347" t="s">
+        <v>23</v>
+      </c>
+      <c r="D347" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E347" s="1">
+        <v>45814.958333333299</v>
+      </c>
+      <c r="F347" t="s">
+        <v>432</v>
+      </c>
+      <c r="J347" t="s">
+        <v>433</v>
+      </c>
+      <c r="K347" t="s">
+        <v>143</v>
+      </c>
+      <c r="P347" s="2">
+        <v>25569.231250000001</v>
+      </c>
+      <c r="S347" s="3"/>
+      <c r="T347" s="3"/>
+      <c r="U347" s="3"/>
+      <c r="V347" s="3"/>
+      <c r="W347" s="3">
+        <v>589.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>22</v>
+      </c>
+      <c r="C348" t="s">
+        <v>129</v>
+      </c>
+      <c r="D348" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E348" s="1">
+        <v>45814.958333333299</v>
+      </c>
+      <c r="K348" t="s">
+        <v>24</v>
+      </c>
+      <c r="P348" s="2">
+        <v>25569.333333333299</v>
+      </c>
+      <c r="S348" s="3"/>
+      <c r="T348" s="3"/>
+      <c r="U348" s="3"/>
+      <c r="V348" s="3"/>
+      <c r="W348" s="3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>22</v>
+      </c>
+      <c r="C349" t="s">
+        <v>90</v>
+      </c>
+      <c r="D349" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E349" s="1">
+        <v>45815.958333333299</v>
+      </c>
+      <c r="K349" t="s">
+        <v>62</v>
+      </c>
+      <c r="P349" s="2">
+        <v>25569.375</v>
+      </c>
+      <c r="S349" s="3"/>
+      <c r="T349" s="3"/>
+      <c r="U349" s="3"/>
+      <c r="V349" s="3"/>
+      <c r="W349" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>22</v>
+      </c>
+      <c r="C350" t="s">
+        <v>90</v>
+      </c>
+      <c r="D350" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E350" s="1">
+        <v>45816.958333333299</v>
+      </c>
+      <c r="K350" t="s">
+        <v>62</v>
+      </c>
+      <c r="P350" s="2">
+        <v>25569.375</v>
+      </c>
+      <c r="S350" s="3"/>
+      <c r="T350" s="3"/>
+      <c r="U350" s="3"/>
+      <c r="V350" s="3"/>
+      <c r="W350" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>95</v>
+      </c>
+      <c r="C351" t="s">
+        <v>53</v>
+      </c>
+      <c r="D351" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E351" s="1">
+        <v>45817.958333333299</v>
+      </c>
+      <c r="G351" t="s">
+        <v>434</v>
+      </c>
+      <c r="I351" t="s">
+        <v>435</v>
+      </c>
+      <c r="J351" t="s">
+        <v>436</v>
+      </c>
+      <c r="K351" t="s">
+        <v>225</v>
+      </c>
+      <c r="O351" t="s">
+        <v>437</v>
+      </c>
+      <c r="P351" s="2">
+        <v>25568.999305555601</v>
+      </c>
+      <c r="S351" s="3"/>
+      <c r="T351" s="3">
+        <v>88.5</v>
+      </c>
+      <c r="U351" s="3"/>
+      <c r="V351" s="3"/>
+      <c r="W351" s="3">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>95</v>
+      </c>
+      <c r="C352" t="s">
+        <v>56</v>
+      </c>
+      <c r="D352" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E352" s="1">
+        <v>45817.958333333299</v>
+      </c>
+      <c r="G352" t="s">
+        <v>438</v>
+      </c>
+      <c r="I352" t="s">
+        <v>435</v>
+      </c>
+      <c r="J352" t="s">
+        <v>436</v>
+      </c>
+      <c r="O352" t="s">
+        <v>437</v>
+      </c>
+      <c r="P352" s="2">
+        <v>25569</v>
+      </c>
+      <c r="S352" s="3"/>
+      <c r="T352" s="3">
+        <v>90</v>
+      </c>
+      <c r="U352" s="3"/>
+      <c r="V352" s="3"/>
+      <c r="W352" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>38</v>
+      </c>
+      <c r="C353" t="s">
+        <v>43</v>
+      </c>
+      <c r="D353" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E353" s="1">
+        <v>45817.958333333299</v>
+      </c>
+      <c r="K353" t="s">
+        <v>40</v>
+      </c>
+      <c r="P353" s="2">
+        <v>25569.035416666698</v>
+      </c>
+      <c r="S353" s="3"/>
+      <c r="T353" s="3">
+        <v>166.5</v>
+      </c>
+      <c r="U353" s="3"/>
+      <c r="V353" s="3"/>
+      <c r="W353" s="3">
+        <v>166.5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>38</v>
+      </c>
+      <c r="C354" t="s">
+        <v>56</v>
+      </c>
+      <c r="D354" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E354" s="1">
+        <v>45817.958333333299</v>
+      </c>
+      <c r="K354" t="s">
+        <v>42</v>
+      </c>
+      <c r="P354" s="2">
+        <v>25569.050694444399</v>
+      </c>
+      <c r="S354" s="3"/>
+      <c r="T354" s="3">
+        <v>199.5</v>
+      </c>
+      <c r="U354" s="3"/>
+      <c r="V354" s="3"/>
+      <c r="W354" s="3">
+        <v>199.5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>38</v>
+      </c>
+      <c r="C355" t="s">
+        <v>60</v>
+      </c>
+      <c r="D355" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E355" s="1">
+        <v>45817.958333333299</v>
+      </c>
+      <c r="K355" t="s">
+        <v>42</v>
+      </c>
+      <c r="P355" s="2">
+        <v>25569.092361111099</v>
+      </c>
+      <c r="S355" s="3"/>
+      <c r="T355" s="3">
+        <v>289.5</v>
+      </c>
+      <c r="U355" s="3"/>
+      <c r="V355" s="3"/>
+      <c r="W355" s="3">
+        <v>289.5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>63</v>
+      </c>
+      <c r="C356" t="s">
+        <v>57</v>
+      </c>
+      <c r="D356" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E356" s="1">
+        <v>45817.958333333299</v>
+      </c>
+      <c r="F356" t="s">
+        <v>439</v>
+      </c>
+      <c r="J356" t="s">
+        <v>440</v>
+      </c>
+      <c r="K356" t="s">
+        <v>344</v>
+      </c>
+      <c r="P356" s="2"/>
+      <c r="S356" s="3"/>
+      <c r="T356" s="3"/>
+      <c r="U356" s="3"/>
+      <c r="V356" s="3"/>
+      <c r="W356" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>25</v>
+      </c>
+      <c r="C357" t="s">
+        <v>56</v>
+      </c>
+      <c r="D357" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E357" s="1">
+        <v>45817.958333333299</v>
+      </c>
+      <c r="F357" t="s">
+        <v>441</v>
+      </c>
+      <c r="J357" t="s">
+        <v>442</v>
+      </c>
+      <c r="K357" t="s">
+        <v>28</v>
+      </c>
+      <c r="P357" s="2">
+        <v>25569.000694444399</v>
+      </c>
+      <c r="S357" s="3"/>
+      <c r="T357" s="3"/>
+      <c r="U357" s="3"/>
+      <c r="V357" s="3"/>
+      <c r="W357" s="3">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>25</v>
+      </c>
+      <c r="C358" t="s">
+        <v>23</v>
+      </c>
+      <c r="D358" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E358" s="1">
+        <v>45817.958333333299</v>
+      </c>
+      <c r="F358" t="s">
+        <v>443</v>
+      </c>
+      <c r="J358" t="s">
+        <v>444</v>
+      </c>
+      <c r="K358" t="s">
+        <v>143</v>
+      </c>
+      <c r="P358" s="2">
+        <v>25569.026388888899</v>
+      </c>
+      <c r="S358" s="3"/>
+      <c r="T358" s="3"/>
+      <c r="U358" s="3"/>
+      <c r="V358" s="3"/>
+      <c r="W358" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>25</v>
+      </c>
+      <c r="C359" t="s">
+        <v>88</v>
+      </c>
+      <c r="D359" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E359" s="1">
+        <v>45817.958333333299</v>
+      </c>
+      <c r="F359" t="s">
+        <v>445</v>
+      </c>
+      <c r="J359" t="s">
+        <v>446</v>
+      </c>
+      <c r="K359" t="s">
+        <v>28</v>
+      </c>
+      <c r="P359" s="2">
+        <v>25569.260416666701</v>
+      </c>
+      <c r="S359" s="3"/>
+      <c r="T359" s="3"/>
+      <c r="U359" s="3"/>
+      <c r="V359" s="3"/>
+      <c r="W359" s="3">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>38</v>
+      </c>
+      <c r="C360" t="s">
+        <v>60</v>
+      </c>
+      <c r="D360" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E360" s="1">
+        <v>45817.958333333299</v>
+      </c>
+      <c r="K360" t="s">
+        <v>46</v>
+      </c>
+      <c r="P360" s="2">
+        <v>25569.0916666667</v>
+      </c>
+      <c r="S360" s="3"/>
+      <c r="T360" s="3">
+        <v>288</v>
+      </c>
+      <c r="U360" s="3"/>
+      <c r="V360" s="3"/>
+      <c r="W360" s="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>22</v>
+      </c>
+      <c r="C361" t="s">
+        <v>23</v>
+      </c>
+      <c r="D361" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E361" s="1">
+        <v>45817.958333333299</v>
+      </c>
+      <c r="K361" t="s">
+        <v>49</v>
+      </c>
+      <c r="P361" s="2">
+        <v>25569.223611111101</v>
+      </c>
+      <c r="S361" s="3"/>
+      <c r="T361" s="3"/>
+      <c r="U361" s="3"/>
+      <c r="V361" s="3"/>
+      <c r="W361" s="3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>38</v>
+      </c>
+      <c r="C362" t="s">
+        <v>56</v>
+      </c>
+      <c r="D362" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E362" s="1">
+        <v>45817.958333333299</v>
+      </c>
+      <c r="K362" t="s">
+        <v>42</v>
+      </c>
+      <c r="P362" s="2">
+        <v>25569.0333333333</v>
+      </c>
+      <c r="S362" s="3"/>
+      <c r="T362" s="3">
+        <v>162</v>
+      </c>
+      <c r="U362" s="3"/>
+      <c r="V362" s="3"/>
+      <c r="W362" s="3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>22</v>
+      </c>
+      <c r="C363" t="s">
+        <v>61</v>
+      </c>
+      <c r="D363" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E363" s="1">
+        <v>45817.958333333299</v>
+      </c>
+      <c r="K363" t="s">
+        <v>62</v>
+      </c>
+      <c r="P363" s="2">
+        <v>25569.354166666701</v>
+      </c>
+      <c r="S363" s="3"/>
+      <c r="T363" s="3"/>
+      <c r="U363" s="3"/>
+      <c r="V363" s="3"/>
+      <c r="W363" s="3">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>38</v>
+      </c>
+      <c r="C364" t="s">
+        <v>43</v>
+      </c>
+      <c r="D364" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E364" s="1">
+        <v>45817.958333333299</v>
+      </c>
+      <c r="K364" t="s">
+        <v>148</v>
+      </c>
+      <c r="P364" s="2">
+        <v>25569.2409722222</v>
+      </c>
+      <c r="S364" s="3"/>
+      <c r="T364" s="3">
+        <v>610.5</v>
+      </c>
+      <c r="U364" s="3"/>
+      <c r="V364" s="3"/>
+      <c r="W364" s="3">
+        <v>610.5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>38</v>
+      </c>
+      <c r="C365" t="s">
+        <v>48</v>
+      </c>
+      <c r="D365" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E365" s="1">
+        <v>45817.958333333299</v>
+      </c>
+      <c r="K365" t="s">
+        <v>40</v>
+      </c>
+      <c r="P365" s="2">
+        <v>25569.378472222201</v>
+      </c>
+      <c r="S365" s="3"/>
+      <c r="T365" s="3">
+        <v>907.5</v>
+      </c>
+      <c r="U365" s="3"/>
+      <c r="V365" s="3"/>
+      <c r="W365" s="3">
+        <v>907.5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>95</v>
+      </c>
+      <c r="C366" t="s">
+        <v>41</v>
+      </c>
+      <c r="D366" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E366" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="G366" t="s">
+        <v>447</v>
+      </c>
+      <c r="I366" t="s">
+        <v>448</v>
+      </c>
+      <c r="J366" t="s">
+        <v>449</v>
+      </c>
+      <c r="K366" t="s">
+        <v>225</v>
+      </c>
+      <c r="O366" t="s">
+        <v>450</v>
+      </c>
+      <c r="P366" s="2">
+        <v>25569.025694444401</v>
+      </c>
+      <c r="S366" s="3"/>
+      <c r="T366" s="3">
+        <v>145.5</v>
+      </c>
+      <c r="U366" s="3"/>
+      <c r="V366" s="3"/>
+      <c r="W366" s="3">
+        <v>145.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>25</v>
+      </c>
+      <c r="C367" t="s">
+        <v>48</v>
+      </c>
+      <c r="D367" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E367" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="F367" t="s">
+        <v>451</v>
+      </c>
+      <c r="J367" t="s">
+        <v>452</v>
+      </c>
+      <c r="K367" t="s">
+        <v>72</v>
+      </c>
+      <c r="P367" s="2">
+        <v>25569.006944444402</v>
+      </c>
+      <c r="S367" s="3"/>
+      <c r="T367" s="3"/>
+      <c r="U367" s="3"/>
+      <c r="V367" s="3"/>
+      <c r="W367" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>63</v>
+      </c>
+      <c r="C368" t="s">
+        <v>88</v>
+      </c>
+      <c r="D368" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E368" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="F368" t="s">
+        <v>453</v>
+      </c>
+      <c r="J368" t="s">
+        <v>454</v>
+      </c>
+      <c r="K368" t="s">
+        <v>125</v>
+      </c>
+      <c r="P368" s="2"/>
+      <c r="S368" s="3"/>
+      <c r="T368" s="3"/>
+      <c r="U368" s="3"/>
+      <c r="V368" s="3"/>
+      <c r="W368" s="3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>95</v>
+      </c>
+      <c r="C369" t="s">
+        <v>48</v>
+      </c>
+      <c r="D369" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E369" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="G369" t="s">
+        <v>455</v>
+      </c>
+      <c r="I369" t="s">
+        <v>456</v>
+      </c>
+      <c r="J369" t="s">
+        <v>457</v>
+      </c>
+      <c r="K369" t="s">
+        <v>153</v>
+      </c>
+      <c r="O369" t="s">
+        <v>458</v>
+      </c>
+      <c r="P369" s="2"/>
+      <c r="S369" s="3"/>
+      <c r="T369" s="3">
+        <v>0</v>
+      </c>
+      <c r="U369" s="3"/>
+      <c r="V369" s="3"/>
+      <c r="W369" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>95</v>
+      </c>
+      <c r="C370" t="s">
+        <v>48</v>
+      </c>
+      <c r="D370" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E370" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="G370" t="s">
+        <v>455</v>
+      </c>
+      <c r="I370" t="s">
+        <v>456</v>
+      </c>
+      <c r="J370" t="s">
+        <v>457</v>
+      </c>
+      <c r="K370" t="s">
+        <v>153</v>
+      </c>
+      <c r="O370" t="s">
+        <v>458</v>
+      </c>
+      <c r="P370" s="2">
+        <v>25569</v>
+      </c>
+      <c r="R370" t="s">
+        <v>459</v>
+      </c>
+      <c r="S370" s="3"/>
+      <c r="T370" s="3">
+        <v>90</v>
+      </c>
+      <c r="U370" s="3"/>
+      <c r="V370" s="3"/>
+      <c r="W370" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>25</v>
+      </c>
+      <c r="C371" t="s">
+        <v>39</v>
+      </c>
+      <c r="D371" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E371" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="F371" t="s">
+        <v>460</v>
+      </c>
+      <c r="J371" t="s">
+        <v>461</v>
+      </c>
+      <c r="K371" t="s">
+        <v>28</v>
+      </c>
+      <c r="P371" s="2">
+        <v>25569.162499999999</v>
+      </c>
+      <c r="S371" s="3"/>
+      <c r="T371" s="3"/>
+      <c r="U371" s="3"/>
+      <c r="V371" s="3"/>
+      <c r="W371" s="3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>25</v>
+      </c>
+      <c r="C372" t="s">
+        <v>102</v>
+      </c>
+      <c r="D372" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E372" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="F372" t="s">
+        <v>462</v>
+      </c>
+      <c r="J372" t="s">
+        <v>463</v>
+      </c>
+      <c r="K372" t="s">
+        <v>28</v>
+      </c>
+      <c r="P372" s="2">
+        <v>25569.2319444444</v>
+      </c>
+      <c r="S372" s="3"/>
+      <c r="T372" s="3"/>
+      <c r="U372" s="3"/>
+      <c r="V372" s="3"/>
+      <c r="W372" s="3"/>
+    </row>
+    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>95</v>
+      </c>
+      <c r="C373" t="s">
+        <v>102</v>
+      </c>
+      <c r="D373" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E373" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="I373" t="s">
+        <v>464</v>
+      </c>
+      <c r="J373" t="s">
+        <v>465</v>
+      </c>
+      <c r="K373" t="s">
+        <v>98</v>
+      </c>
+      <c r="O373" t="s">
+        <v>466</v>
+      </c>
+      <c r="P373" s="2">
+        <v>25569.118750000001</v>
+      </c>
+      <c r="S373" s="3"/>
+      <c r="T373" s="3">
+        <v>346.5</v>
+      </c>
+      <c r="U373" s="3"/>
+      <c r="V373" s="3"/>
+      <c r="W373" s="3">
+        <v>346.5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>38</v>
+      </c>
+      <c r="C374" t="s">
+        <v>102</v>
+      </c>
+      <c r="D374" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E374" s="1">
+        <v>45817.958333333299</v>
+      </c>
+      <c r="K374" t="s">
+        <v>47</v>
+      </c>
+      <c r="P374" s="2">
+        <v>25568.9819444444</v>
+      </c>
+      <c r="S374" s="3"/>
+      <c r="T374" s="3">
+        <v>51</v>
+      </c>
+      <c r="U374" s="3"/>
+      <c r="V374" s="3"/>
+      <c r="W374" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>25</v>
+      </c>
+      <c r="C375" t="s">
+        <v>41</v>
+      </c>
+      <c r="D375" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E375" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="F375" t="s">
+        <v>467</v>
+      </c>
+      <c r="J375" t="s">
+        <v>468</v>
+      </c>
+      <c r="K375" t="s">
+        <v>28</v>
+      </c>
+      <c r="P375" s="2">
+        <v>25569.120833333302</v>
+      </c>
+      <c r="S375" s="3"/>
+      <c r="T375" s="3"/>
+      <c r="U375" s="3"/>
+      <c r="V375" s="3"/>
+      <c r="W375" s="3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>22</v>
+      </c>
+      <c r="C376" t="s">
+        <v>129</v>
+      </c>
+      <c r="D376" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E376" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="K376" t="s">
+        <v>24</v>
+      </c>
+      <c r="P376" s="2">
+        <v>25569.333333333299</v>
+      </c>
+      <c r="S376" s="3"/>
+      <c r="T376" s="3"/>
+      <c r="U376" s="3"/>
+      <c r="V376" s="3"/>
+      <c r="W376" s="3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>38</v>
+      </c>
+      <c r="C377" t="s">
+        <v>53</v>
+      </c>
+      <c r="D377" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E377" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="K377" t="s">
+        <v>46</v>
+      </c>
+      <c r="P377" s="2">
+        <v>25569.357638888901</v>
+      </c>
+      <c r="S377" s="3"/>
+      <c r="T377" s="3">
+        <v>862.5</v>
+      </c>
+      <c r="U377" s="3"/>
+      <c r="V377" s="3"/>
+      <c r="W377" s="3">
+        <v>862.5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>63</v>
+      </c>
+      <c r="C378" t="s">
+        <v>23</v>
+      </c>
+      <c r="D378" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E378" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="F378" t="s">
+        <v>469</v>
+      </c>
+      <c r="J378" t="s">
+        <v>470</v>
+      </c>
+      <c r="K378" t="s">
+        <v>66</v>
+      </c>
+      <c r="P378" s="2"/>
+      <c r="S378" s="3"/>
+      <c r="T378" s="3"/>
+      <c r="U378" s="3"/>
+      <c r="V378" s="3"/>
+      <c r="W378" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>22</v>
+      </c>
+      <c r="C379" t="s">
+        <v>23</v>
+      </c>
+      <c r="D379" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E379" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="K379" t="s">
+        <v>49</v>
+      </c>
+      <c r="P379" s="2">
+        <v>25569.081249999999</v>
+      </c>
+      <c r="S379" s="3"/>
+      <c r="T379" s="3"/>
+      <c r="U379" s="3"/>
+      <c r="V379" s="3"/>
+      <c r="W379" s="3">
+        <v>265.5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>38</v>
+      </c>
+      <c r="C380" t="s">
+        <v>48</v>
+      </c>
+      <c r="D380" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E380" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="K380" t="s">
+        <v>384</v>
+      </c>
+      <c r="P380" s="2">
+        <v>25569.092361111099</v>
+      </c>
+      <c r="S380" s="3"/>
+      <c r="T380" s="3">
+        <v>289.5</v>
+      </c>
+      <c r="U380" s="3"/>
+      <c r="V380" s="3"/>
+      <c r="W380" s="3">
+        <v>289.5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>25</v>
+      </c>
+      <c r="C381" t="s">
+        <v>56</v>
+      </c>
+      <c r="D381" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E381" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="F381" t="s">
+        <v>471</v>
+      </c>
+      <c r="J381" t="s">
+        <v>472</v>
+      </c>
+      <c r="K381" t="s">
+        <v>28</v>
+      </c>
+      <c r="P381" s="2">
+        <v>25569.375</v>
+      </c>
+      <c r="S381" s="3"/>
+      <c r="T381" s="3"/>
+      <c r="U381" s="3"/>
+      <c r="V381" s="3"/>
+      <c r="W381" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>22</v>
+      </c>
+      <c r="C382" t="s">
+        <v>88</v>
+      </c>
+      <c r="D382" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E382" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="K382" t="s">
+        <v>62</v>
+      </c>
+      <c r="P382" s="2">
+        <v>25569.2166666667</v>
+      </c>
+      <c r="S382" s="3"/>
+      <c r="T382" s="3"/>
+      <c r="U382" s="3"/>
+      <c r="V382" s="3"/>
+      <c r="W382" s="3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>22</v>
+      </c>
+      <c r="C383" t="s">
+        <v>61</v>
+      </c>
+      <c r="D383" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E383" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="K383" t="s">
+        <v>62</v>
+      </c>
+      <c r="P383" s="2">
+        <v>25569.125</v>
+      </c>
+      <c r="S383" s="3"/>
+      <c r="T383" s="3"/>
+      <c r="U383" s="3"/>
+      <c r="V383" s="3"/>
+      <c r="W383" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>63</v>
+      </c>
+      <c r="C384" t="s">
+        <v>61</v>
+      </c>
+      <c r="D384" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E384" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="F384" t="s">
+        <v>473</v>
+      </c>
+      <c r="J384" t="s">
+        <v>474</v>
+      </c>
+      <c r="K384" t="s">
+        <v>78</v>
+      </c>
+      <c r="P384" s="2"/>
+      <c r="S384" s="3"/>
+      <c r="T384" s="3"/>
+      <c r="U384" s="3"/>
+      <c r="V384" s="3"/>
+      <c r="W384" s="3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>22</v>
+      </c>
+      <c r="C385" t="s">
+        <v>39</v>
+      </c>
+      <c r="D385" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E385" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="K385" t="s">
+        <v>62</v>
+      </c>
+      <c r="P385" s="2">
+        <v>25569.05</v>
+      </c>
+      <c r="S385" s="3"/>
+      <c r="T385" s="3"/>
+      <c r="U385" s="3"/>
+      <c r="V385" s="3"/>
+      <c r="W385" s="3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>105</v>
+      </c>
+      <c r="C386" t="s">
+        <v>90</v>
+      </c>
+      <c r="D386" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E386" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="J386" t="s">
+        <v>213</v>
+      </c>
+      <c r="P386" s="2">
+        <v>25569.375</v>
+      </c>
+      <c r="Q386" t="s">
+        <v>183</v>
+      </c>
+      <c r="R386" t="s">
+        <v>183</v>
+      </c>
+      <c r="S386" s="3">
+        <v>0</v>
+      </c>
+      <c r="T386" s="3">
+        <v>810</v>
+      </c>
+      <c r="U386" s="3"/>
+      <c r="V386" s="3"/>
+      <c r="W386" s="3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>25</v>
+      </c>
+      <c r="C387" t="s">
+        <v>61</v>
+      </c>
+      <c r="D387" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E387" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="F387" t="s">
+        <v>475</v>
+      </c>
+      <c r="J387" t="s">
+        <v>476</v>
+      </c>
+      <c r="K387" t="s">
+        <v>72</v>
+      </c>
+      <c r="P387" s="2">
+        <v>25569.020833333299</v>
+      </c>
+      <c r="S387" s="3"/>
+      <c r="T387" s="3"/>
+      <c r="U387" s="3"/>
+      <c r="V387" s="3"/>
+      <c r="W387" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>25</v>
+      </c>
+      <c r="C388" t="s">
+        <v>41</v>
+      </c>
+      <c r="D388" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E388" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="F388" t="s">
+        <v>477</v>
+      </c>
+      <c r="J388" t="s">
+        <v>478</v>
+      </c>
+      <c r="K388" t="s">
+        <v>28</v>
+      </c>
+      <c r="P388" s="2">
+        <v>25569.118055555598</v>
+      </c>
+      <c r="S388" s="3"/>
+      <c r="T388" s="3"/>
+      <c r="U388" s="3"/>
+      <c r="V388" s="3"/>
+      <c r="W388" s="3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>63</v>
+      </c>
+      <c r="C389" t="s">
+        <v>41</v>
+      </c>
+      <c r="D389" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E389" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="F389" t="s">
+        <v>479</v>
+      </c>
+      <c r="J389" t="s">
+        <v>480</v>
+      </c>
+      <c r="K389" t="s">
+        <v>66</v>
+      </c>
+      <c r="P389" s="2"/>
+      <c r="S389" s="3"/>
+      <c r="T389" s="3"/>
+      <c r="U389" s="3"/>
+      <c r="V389" s="3"/>
+      <c r="W389" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>38</v>
+      </c>
+      <c r="C390" t="s">
+        <v>41</v>
+      </c>
+      <c r="D390" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E390" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="K390" t="s">
+        <v>42</v>
+      </c>
+      <c r="P390" s="2">
+        <v>25569.05</v>
+      </c>
+      <c r="S390" s="3"/>
+      <c r="T390" s="3">
+        <v>198</v>
+      </c>
+      <c r="U390" s="3"/>
+      <c r="V390" s="3"/>
+      <c r="W390" s="3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>38</v>
+      </c>
+      <c r="C391" t="s">
+        <v>53</v>
+      </c>
+      <c r="D391" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E391" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="K391" t="s">
+        <v>46</v>
+      </c>
+      <c r="P391" s="2">
+        <v>25569.258333333299</v>
+      </c>
+      <c r="S391" s="3"/>
+      <c r="T391" s="3">
+        <v>648</v>
+      </c>
+      <c r="U391" s="3"/>
+      <c r="V391" s="3"/>
+      <c r="W391" s="3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>25</v>
+      </c>
+      <c r="C392" t="s">
+        <v>56</v>
+      </c>
+      <c r="D392" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E392" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="F392" t="s">
+        <v>481</v>
+      </c>
+      <c r="J392" t="s">
+        <v>482</v>
+      </c>
+      <c r="K392" t="s">
+        <v>143</v>
+      </c>
+      <c r="P392" s="2">
+        <v>25569.313888888901</v>
+      </c>
+      <c r="S392" s="3"/>
+      <c r="T392" s="3"/>
+      <c r="U392" s="3"/>
+      <c r="V392" s="3"/>
+      <c r="W392" s="3">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>38</v>
+      </c>
+      <c r="C393" t="s">
+        <v>60</v>
+      </c>
+      <c r="D393" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E393" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="K393" t="s">
+        <v>42</v>
+      </c>
+      <c r="P393" s="2">
+        <v>25569.0958333333</v>
+      </c>
+      <c r="S393" s="3"/>
+      <c r="T393" s="3">
+        <v>297</v>
+      </c>
+      <c r="U393" s="3"/>
+      <c r="V393" s="3"/>
+      <c r="W393" s="3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>38</v>
+      </c>
+      <c r="C394" t="s">
+        <v>43</v>
+      </c>
+      <c r="D394" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E394" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="K394" t="s">
+        <v>148</v>
+      </c>
+      <c r="P394" s="2">
+        <v>25569.065972222201</v>
+      </c>
+      <c r="S394" s="3"/>
+      <c r="T394" s="3">
+        <v>232.5</v>
+      </c>
+      <c r="U394" s="3"/>
+      <c r="V394" s="3"/>
+      <c r="W394" s="3">
+        <v>232.5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>38</v>
+      </c>
+      <c r="C395" t="s">
+        <v>48</v>
+      </c>
+      <c r="D395" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E395" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="K395" t="s">
+        <v>384</v>
+      </c>
+      <c r="P395" s="2">
+        <v>25569.265277777798</v>
+      </c>
+      <c r="S395" s="3"/>
+      <c r="T395" s="3">
+        <v>663</v>
+      </c>
+      <c r="U395" s="3"/>
+      <c r="V395" s="3"/>
+      <c r="W395" s="3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>38</v>
+      </c>
+      <c r="C396" t="s">
+        <v>43</v>
+      </c>
+      <c r="D396" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E396" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="K396" t="s">
+        <v>135</v>
+      </c>
+      <c r="P396" s="2">
+        <v>25568.969444444399</v>
+      </c>
+      <c r="S396" s="3"/>
+      <c r="T396" s="3">
+        <v>24</v>
+      </c>
+      <c r="U396" s="3"/>
+      <c r="V396" s="3"/>
+      <c r="W396" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>63</v>
+      </c>
+      <c r="C397" t="s">
+        <v>23</v>
+      </c>
+      <c r="D397" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E397" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="F397" t="s">
+        <v>483</v>
+      </c>
+      <c r="J397" t="s">
+        <v>484</v>
+      </c>
+      <c r="K397" t="s">
+        <v>66</v>
+      </c>
+      <c r="P397" s="2"/>
+      <c r="S397" s="3"/>
+      <c r="T397" s="3"/>
+      <c r="U397" s="3"/>
+      <c r="V397" s="3"/>
+      <c r="W397" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>25</v>
+      </c>
+      <c r="C398" t="s">
+        <v>23</v>
+      </c>
+      <c r="D398" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E398" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="F398" t="s">
+        <v>485</v>
+      </c>
+      <c r="J398" t="s">
+        <v>69</v>
+      </c>
+      <c r="K398" t="s">
+        <v>28</v>
+      </c>
+      <c r="P398" s="2">
+        <v>25569.027777777799</v>
+      </c>
+      <c r="S398" s="3"/>
+      <c r="T398" s="3"/>
+      <c r="U398" s="3"/>
+      <c r="V398" s="3"/>
+      <c r="W398" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>190</v>
+      </c>
+      <c r="C399" t="s">
+        <v>428</v>
+      </c>
+      <c r="D399" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E399" s="1">
+        <v>45818.958333333299</v>
+      </c>
+      <c r="F399" t="s">
+        <v>486</v>
+      </c>
+      <c r="H399" t="s">
+        <v>407</v>
+      </c>
+      <c r="M399" t="s">
+        <v>487</v>
+      </c>
+      <c r="N399" t="s">
+        <v>216</v>
+      </c>
+      <c r="O399" t="s">
+        <v>488</v>
+      </c>
+      <c r="P399" s="2">
+        <v>25569</v>
+      </c>
+      <c r="S399" s="3"/>
+      <c r="T399" s="3">
+        <v>108</v>
+      </c>
+      <c r="U399" s="3"/>
+      <c r="V399" s="3">
+        <v>0</v>
+      </c>
+      <c r="W399" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>63</v>
+      </c>
+      <c r="C400" t="s">
+        <v>48</v>
+      </c>
+      <c r="D400" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E400" s="1">
+        <v>45821.958333333299</v>
+      </c>
+      <c r="F400" t="s">
+        <v>489</v>
+      </c>
+      <c r="J400" t="s">
+        <v>490</v>
+      </c>
+      <c r="K400" t="s">
+        <v>344</v>
+      </c>
+      <c r="P400" s="2"/>
+      <c r="S400" s="3"/>
+      <c r="T400" s="3"/>
+      <c r="U400" s="3"/>
+      <c r="V400" s="3"/>
+      <c r="W400" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>63</v>
+      </c>
+      <c r="C401" t="s">
+        <v>88</v>
+      </c>
+      <c r="D401" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E401" s="1">
+        <v>45821.958333333299</v>
+      </c>
+      <c r="F401" t="s">
+        <v>491</v>
+      </c>
+      <c r="J401" t="s">
+        <v>492</v>
+      </c>
+      <c r="K401" t="s">
+        <v>344</v>
+      </c>
+      <c r="P401" s="2"/>
+      <c r="S401" s="3"/>
+      <c r="T401" s="3"/>
+      <c r="U401" s="3"/>
+      <c r="V401" s="3"/>
+      <c r="W401" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>95</v>
+      </c>
+      <c r="C402" t="s">
+        <v>56</v>
+      </c>
+      <c r="D402" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E402" s="1">
+        <v>45821.958333333299</v>
+      </c>
+      <c r="G402" t="s">
+        <v>493</v>
+      </c>
+      <c r="I402" t="s">
+        <v>494</v>
+      </c>
+      <c r="J402" t="s">
+        <v>495</v>
+      </c>
+      <c r="K402" t="s">
+        <v>225</v>
+      </c>
+      <c r="O402" t="s">
+        <v>496</v>
+      </c>
+      <c r="P402" s="2">
+        <v>25568.980555555601</v>
+      </c>
+      <c r="R402" t="s">
+        <v>497</v>
+      </c>
+      <c r="S402" s="3"/>
+      <c r="T402" s="3">
+        <v>48</v>
+      </c>
+      <c r="U402" s="3"/>
+      <c r="V402" s="3"/>
+      <c r="W402" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>38</v>
+      </c>
+      <c r="C403" t="s">
+        <v>115</v>
+      </c>
+      <c r="D403" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E403" s="1">
+        <v>45821.958333333299</v>
+      </c>
+      <c r="K403" t="s">
+        <v>46</v>
+      </c>
+      <c r="P403" s="2">
+        <v>25569.022916666701</v>
+      </c>
+      <c r="S403" s="3"/>
+      <c r="T403" s="3">
+        <v>139.5</v>
+      </c>
+      <c r="U403" s="3"/>
+      <c r="V403" s="3"/>
+      <c r="W403" s="3">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>63</v>
+      </c>
+      <c r="C404" t="s">
+        <v>132</v>
+      </c>
+      <c r="D404" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E404" s="1">
+        <v>45821.958333333299</v>
+      </c>
+      <c r="F404" t="s">
+        <v>498</v>
+      </c>
+      <c r="J404" t="s">
+        <v>499</v>
+      </c>
+      <c r="K404" t="s">
+        <v>344</v>
+      </c>
+      <c r="P404" s="2"/>
+      <c r="S404" s="3"/>
+      <c r="T404" s="3"/>
+      <c r="U404" s="3"/>
+      <c r="V404" s="3"/>
+      <c r="W404" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>25</v>
+      </c>
+      <c r="C405" t="s">
+        <v>132</v>
+      </c>
+      <c r="D405" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E405" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="F405" t="s">
+        <v>485</v>
+      </c>
+      <c r="J405" t="s">
+        <v>500</v>
+      </c>
+      <c r="K405" t="s">
+        <v>28</v>
+      </c>
+      <c r="P405" s="2">
+        <v>25568.958333333299</v>
+      </c>
+      <c r="S405" s="3"/>
+      <c r="T405" s="3"/>
+      <c r="U405" s="3"/>
+      <c r="V405" s="3"/>
+      <c r="W405" s="3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>95</v>
+      </c>
+      <c r="C406" t="s">
+        <v>102</v>
+      </c>
+      <c r="D406" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E406" s="1">
+        <v>45821.958333333299</v>
+      </c>
+      <c r="G406">
+        <v>0</v>
+      </c>
+      <c r="I406" t="s">
+        <v>464</v>
+      </c>
+      <c r="J406" t="s">
+        <v>465</v>
+      </c>
+      <c r="K406" t="s">
+        <v>98</v>
+      </c>
+      <c r="O406" t="s">
+        <v>466</v>
+      </c>
+      <c r="P406" s="2">
+        <v>25568.958333333299</v>
+      </c>
+      <c r="S406" s="3"/>
+      <c r="T406" s="3">
+        <v>97.5</v>
+      </c>
+      <c r="U406" s="3"/>
+      <c r="V406" s="3"/>
+      <c r="W406" s="3">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>38</v>
+      </c>
+      <c r="C407" t="s">
+        <v>115</v>
+      </c>
+      <c r="D407" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E407" s="1">
+        <v>45821.958333333299</v>
+      </c>
+      <c r="K407" t="s">
+        <v>148</v>
+      </c>
+      <c r="P407" s="2">
+        <v>25568.998611111099</v>
+      </c>
+      <c r="S407" s="3"/>
+      <c r="T407" s="3">
+        <v>87</v>
+      </c>
+      <c r="U407" s="3"/>
+      <c r="V407" s="3"/>
+      <c r="W407" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>38</v>
+      </c>
+      <c r="C408" t="s">
+        <v>39</v>
+      </c>
+      <c r="D408" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E408" s="1">
+        <v>45821.958333333299</v>
+      </c>
+      <c r="K408" t="s">
+        <v>148</v>
+      </c>
+      <c r="P408" s="2">
+        <v>25569.003472222201</v>
+      </c>
+      <c r="S408" s="3"/>
+      <c r="T408" s="3">
+        <v>97.5</v>
+      </c>
+      <c r="U408" s="3"/>
+      <c r="V408" s="3"/>
+      <c r="W408" s="3">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>38</v>
+      </c>
+      <c r="C409" t="s">
+        <v>39</v>
+      </c>
+      <c r="D409" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E409" s="1">
+        <v>45821.958333333299</v>
+      </c>
+      <c r="K409" t="s">
+        <v>218</v>
+      </c>
+      <c r="P409" s="2">
+        <v>25569.074305555601</v>
+      </c>
+      <c r="S409" s="3"/>
+      <c r="T409" s="3">
+        <v>250.5</v>
+      </c>
+      <c r="U409" s="3"/>
+      <c r="V409" s="3"/>
+      <c r="W409" s="3">
+        <v>250.5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>38</v>
+      </c>
+      <c r="C410" t="s">
+        <v>39</v>
+      </c>
+      <c r="D410" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E410" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="K410" t="s">
+        <v>218</v>
+      </c>
+      <c r="P410" s="2">
+        <v>25569.144444444399</v>
+      </c>
+      <c r="S410" s="3"/>
+      <c r="T410" s="3">
+        <v>402</v>
+      </c>
+      <c r="U410" s="3"/>
+      <c r="V410" s="3"/>
+      <c r="W410" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>38</v>
+      </c>
+      <c r="C411" t="s">
+        <v>88</v>
+      </c>
+      <c r="D411" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E411" s="1">
+        <v>45821.958333333299</v>
+      </c>
+      <c r="K411" t="s">
+        <v>42</v>
+      </c>
+      <c r="P411" s="2">
+        <v>25569.1361111111</v>
+      </c>
+      <c r="S411" s="3"/>
+      <c r="T411" s="3">
+        <v>384</v>
+      </c>
+      <c r="U411" s="3"/>
+      <c r="V411" s="3"/>
+      <c r="W411" s="3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>22</v>
+      </c>
+      <c r="C412" t="s">
+        <v>48</v>
+      </c>
+      <c r="D412" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E412" s="1">
+        <v>45821.958333333299</v>
+      </c>
+      <c r="K412" t="s">
+        <v>49</v>
+      </c>
+      <c r="P412" s="2">
+        <v>25569.225694444402</v>
+      </c>
+      <c r="S412" s="3"/>
+      <c r="T412" s="3"/>
+      <c r="U412" s="3"/>
+      <c r="V412" s="3"/>
+      <c r="W412" s="3">
+        <v>577.5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>38</v>
+      </c>
+      <c r="C413" t="s">
+        <v>43</v>
+      </c>
+      <c r="D413" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E413" s="1">
+        <v>45819.958333333299</v>
+      </c>
+      <c r="K413" t="s">
+        <v>278</v>
+      </c>
+      <c r="P413" s="2">
+        <v>25569.131249999999</v>
+      </c>
+      <c r="S413" s="3"/>
+      <c r="T413" s="3">
+        <v>373.5</v>
+      </c>
+      <c r="U413" s="3"/>
+      <c r="V413" s="3"/>
+      <c r="W413" s="3">
+        <v>373.5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>38</v>
+      </c>
+      <c r="C414" t="s">
+        <v>41</v>
+      </c>
+      <c r="D414" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E414" s="1">
+        <v>45821.958333333299</v>
+      </c>
+      <c r="K414" t="s">
+        <v>42</v>
+      </c>
+      <c r="P414" s="2">
+        <v>25569.112499999999</v>
+      </c>
+      <c r="S414" s="3"/>
+      <c r="T414" s="3">
+        <v>333</v>
+      </c>
+      <c r="U414" s="3"/>
+      <c r="V414" s="3"/>
+      <c r="W414" s="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>38</v>
+      </c>
+      <c r="C415" t="s">
+        <v>41</v>
+      </c>
+      <c r="D415" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E415" s="1">
+        <v>45821.958333333299</v>
+      </c>
+      <c r="K415" t="s">
+        <v>42</v>
+      </c>
+      <c r="P415" s="2">
+        <v>25569.036805555599</v>
+      </c>
+      <c r="S415" s="3"/>
+      <c r="T415" s="3">
+        <v>169.5</v>
+      </c>
+      <c r="U415" s="3"/>
+      <c r="V415" s="3"/>
+      <c r="W415" s="3">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>38</v>
+      </c>
+      <c r="C416" t="s">
+        <v>149</v>
+      </c>
+      <c r="D416" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E416" s="1">
+        <v>45821.958333333299</v>
+      </c>
+      <c r="K416" t="s">
+        <v>148</v>
+      </c>
+      <c r="P416" s="2">
+        <v>25569</v>
+      </c>
+      <c r="S416" s="3"/>
+      <c r="T416" s="3">
+        <v>90</v>
+      </c>
+      <c r="U416" s="3"/>
+      <c r="V416" s="3"/>
+      <c r="W416" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>38</v>
+      </c>
+      <c r="C417" t="s">
+        <v>149</v>
+      </c>
+      <c r="D417" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E417" s="1">
+        <v>45821.958333333299</v>
+      </c>
+      <c r="K417" t="s">
+        <v>42</v>
+      </c>
+      <c r="P417" s="2"/>
+      <c r="S417" s="3"/>
+      <c r="T417" s="3">
+        <v>0</v>
+      </c>
+      <c r="U417" s="3"/>
+      <c r="V417" s="3"/>
+      <c r="W417" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>63</v>
+      </c>
+      <c r="C418" t="s">
+        <v>60</v>
+      </c>
+      <c r="D418" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E418" s="1">
+        <v>45822.958333333299</v>
+      </c>
+      <c r="F418" t="s">
+        <v>501</v>
+      </c>
+      <c r="J418" t="s">
+        <v>502</v>
+      </c>
+      <c r="K418" t="s">
+        <v>66</v>
+      </c>
+      <c r="P418" s="2"/>
+      <c r="S418" s="3"/>
+      <c r="T418" s="3"/>
+      <c r="U418" s="3"/>
+      <c r="V418" s="3"/>
+      <c r="W418" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>22</v>
+      </c>
+      <c r="C419" t="s">
+        <v>60</v>
+      </c>
+      <c r="D419" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E419" s="1">
+        <v>45822.958333333299</v>
+      </c>
+      <c r="K419" t="s">
+        <v>24</v>
+      </c>
+      <c r="P419" s="2">
+        <v>25569.172222222202</v>
+      </c>
+      <c r="S419" s="3"/>
+      <c r="T419" s="3"/>
+      <c r="U419" s="3"/>
+      <c r="V419" s="3"/>
+      <c r="W419" s="3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>22</v>
+      </c>
+      <c r="C420" t="s">
+        <v>39</v>
+      </c>
+      <c r="D420" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E420" s="1">
+        <v>45822.958333333299</v>
+      </c>
+      <c r="K420" t="s">
+        <v>62</v>
+      </c>
+      <c r="P420" s="2">
+        <v>25569.334027777801</v>
+      </c>
+      <c r="S420" s="3"/>
+      <c r="T420" s="3"/>
+      <c r="U420" s="3"/>
+      <c r="V420" s="3"/>
+      <c r="W420" s="3">
+        <v>811.5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>22</v>
+      </c>
+      <c r="C421" t="s">
+        <v>39</v>
+      </c>
+      <c r="D421" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E421" s="1">
+        <v>45823.958333333299</v>
+      </c>
+      <c r="K421" t="s">
+        <v>62</v>
+      </c>
+      <c r="P421" s="2">
+        <v>25569.3881944444</v>
+      </c>
+      <c r="S421" s="3"/>
+      <c r="T421" s="3"/>
+      <c r="U421" s="3"/>
+      <c r="V421" s="3"/>
+      <c r="W421" s="3">
+        <v>928.5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>22</v>
+      </c>
+      <c r="C422" t="s">
+        <v>60</v>
+      </c>
+      <c r="D422" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E422" s="1">
+        <v>45823.958333333299</v>
+      </c>
+      <c r="K422" t="s">
+        <v>24</v>
+      </c>
+      <c r="P422" s="2">
+        <v>25569.3569444444</v>
+      </c>
+      <c r="S422" s="3"/>
+      <c r="T422" s="3"/>
+      <c r="U422" s="3"/>
+      <c r="V422" s="3"/>
+      <c r="W422" s="3">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>25</v>
+      </c>
+      <c r="C423" t="s">
+        <v>56</v>
+      </c>
+      <c r="D423" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E423" s="1">
+        <v>45824.958333333299</v>
+      </c>
+      <c r="F423" t="s">
+        <v>503</v>
+      </c>
+      <c r="J423" t="s">
+        <v>504</v>
+      </c>
+      <c r="K423" t="s">
+        <v>143</v>
+      </c>
+      <c r="P423" s="2">
+        <v>25569.046527777798</v>
+      </c>
+      <c r="S423" s="3"/>
+      <c r="T423" s="3"/>
+      <c r="U423" s="3"/>
+      <c r="V423" s="3"/>
+      <c r="W423" s="3">
+        <v>190.5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>38</v>
+      </c>
+      <c r="C424" t="s">
+        <v>88</v>
+      </c>
+      <c r="D424" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E424" s="1">
+        <v>45824.958333333299</v>
+      </c>
+      <c r="K424" t="s">
+        <v>148</v>
+      </c>
+      <c r="P424" s="2">
+        <v>25569.001388888901</v>
+      </c>
+      <c r="S424" s="3"/>
+      <c r="T424" s="3">
+        <v>93</v>
+      </c>
+      <c r="U424" s="3"/>
+      <c r="V424" s="3"/>
+      <c r="W424" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>38</v>
+      </c>
+      <c r="C425" t="s">
+        <v>115</v>
+      </c>
+      <c r="D425" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E425" s="1">
+        <v>45824.958333333299</v>
+      </c>
+      <c r="K425" t="s">
+        <v>40</v>
+      </c>
+      <c r="P425" s="2">
+        <v>25569.054166666701</v>
+      </c>
+      <c r="S425" s="3"/>
+      <c r="T425" s="3">
+        <v>207</v>
+      </c>
+      <c r="U425" s="3"/>
+      <c r="V425" s="3"/>
+      <c r="W425" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>25</v>
+      </c>
+      <c r="C426" t="s">
+        <v>56</v>
+      </c>
+      <c r="D426" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E426" s="1">
+        <v>45824.958333333299</v>
+      </c>
+      <c r="F426" t="s">
+        <v>505</v>
+      </c>
+      <c r="J426" t="s">
+        <v>506</v>
+      </c>
+      <c r="K426" t="s">
+        <v>143</v>
+      </c>
+      <c r="P426" s="2">
+        <v>25569.039583333299</v>
+      </c>
+      <c r="S426" s="3"/>
+      <c r="T426" s="3"/>
+      <c r="U426" s="3"/>
+      <c r="V426" s="3"/>
+      <c r="W426" s="3">
+        <v>175.5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>25</v>
+      </c>
+      <c r="C427" t="s">
+        <v>43</v>
+      </c>
+      <c r="D427" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E427" s="1">
+        <v>45824.958333333299</v>
+      </c>
+      <c r="F427" t="s">
+        <v>507</v>
+      </c>
+      <c r="J427" t="s">
+        <v>508</v>
+      </c>
+      <c r="K427" t="s">
+        <v>28</v>
+      </c>
+      <c r="P427" s="2">
+        <v>25569.1138888889</v>
+      </c>
+      <c r="S427" s="3"/>
+      <c r="T427" s="3"/>
+      <c r="U427" s="3"/>
+      <c r="V427" s="3"/>
+      <c r="W427" s="3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>38</v>
+      </c>
+      <c r="C428" t="s">
+        <v>39</v>
+      </c>
+      <c r="D428" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E428" s="1">
+        <v>45824.958333333299</v>
+      </c>
+      <c r="K428" t="s">
+        <v>148</v>
+      </c>
+      <c r="P428" s="2">
+        <v>25569.09375</v>
+      </c>
+      <c r="S428" s="3"/>
+      <c r="T428" s="3">
+        <v>292.5</v>
+      </c>
+      <c r="U428" s="3"/>
+      <c r="V428" s="3"/>
+      <c r="W428" s="3">
+        <v>292.5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>25</v>
+      </c>
+      <c r="C429" t="s">
+        <v>56</v>
+      </c>
+      <c r="D429" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E429" s="1">
+        <v>45824.958333333299</v>
+      </c>
+      <c r="F429" t="s">
+        <v>509</v>
+      </c>
+      <c r="J429" t="s">
+        <v>510</v>
+      </c>
+      <c r="K429" t="s">
+        <v>143</v>
+      </c>
+      <c r="P429" s="2">
+        <v>25569.0736111111</v>
+      </c>
+      <c r="S429" s="3"/>
+      <c r="T429" s="3"/>
+      <c r="U429" s="3"/>
+      <c r="V429" s="3"/>
+      <c r="W429" s="3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>38</v>
+      </c>
+      <c r="C430" t="s">
+        <v>88</v>
+      </c>
+      <c r="D430" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E430" s="1">
+        <v>45824.958333333299</v>
+      </c>
+      <c r="K430" t="s">
+        <v>42</v>
+      </c>
+      <c r="P430" s="2">
+        <v>25569.133333333299</v>
+      </c>
+      <c r="S430" s="3"/>
+      <c r="T430" s="3">
+        <v>378</v>
+      </c>
+      <c r="U430" s="3"/>
+      <c r="V430" s="3"/>
+      <c r="W430" s="3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>25</v>
+      </c>
+      <c r="C431" t="s">
+        <v>41</v>
+      </c>
+      <c r="D431" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E431" s="1">
+        <v>45824.958333333299</v>
+      </c>
+      <c r="F431" t="s">
+        <v>511</v>
+      </c>
+      <c r="J431" t="s">
+        <v>512</v>
+      </c>
+      <c r="K431" t="s">
+        <v>143</v>
+      </c>
+      <c r="P431" s="2">
+        <v>25569.038194444402</v>
+      </c>
+      <c r="S431" s="3"/>
+      <c r="T431" s="3"/>
+      <c r="U431" s="3"/>
+      <c r="V431" s="3"/>
+      <c r="W431" s="3">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>38</v>
+      </c>
+      <c r="C432" t="s">
+        <v>41</v>
+      </c>
+      <c r="D432" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E432" s="1">
+        <v>45824.958333333299</v>
+      </c>
+      <c r="K432" t="s">
+        <v>42</v>
+      </c>
+      <c r="P432" s="2">
+        <v>25569.0222222222</v>
+      </c>
+      <c r="S432" s="3"/>
+      <c r="T432" s="3">
+        <v>138</v>
+      </c>
+      <c r="U432" s="3"/>
+      <c r="V432" s="3"/>
+      <c r="W432" s="3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>22</v>
+      </c>
+      <c r="C433" t="s">
+        <v>23</v>
+      </c>
+      <c r="D433" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E433" s="1">
+        <v>45824.958333333299</v>
+      </c>
+      <c r="K433" t="s">
+        <v>24</v>
+      </c>
+      <c r="P433" s="2">
+        <v>25569.0645833333</v>
+      </c>
+      <c r="S433" s="3"/>
+      <c r="T433" s="3"/>
+      <c r="U433" s="3"/>
+      <c r="V433" s="3"/>
+      <c r="W433" s="3">
+        <v>229.5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>38</v>
+      </c>
+      <c r="C434" t="s">
+        <v>23</v>
+      </c>
+      <c r="D434" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E434" s="1">
+        <v>45824.958333333299</v>
+      </c>
+      <c r="K434" t="s">
+        <v>40</v>
+      </c>
+      <c r="P434" s="2">
+        <v>25569.022916666701</v>
+      </c>
+      <c r="S434" s="3"/>
+      <c r="T434" s="3">
+        <v>139.5</v>
+      </c>
+      <c r="U434" s="3"/>
+      <c r="V434" s="3"/>
+      <c r="W434" s="3">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>38</v>
+      </c>
+      <c r="C435" t="s">
+        <v>23</v>
+      </c>
+      <c r="D435" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E435" s="1">
+        <v>45824.958333333299</v>
+      </c>
+      <c r="K435" t="s">
+        <v>40</v>
+      </c>
+      <c r="P435" s="2">
+        <v>25569.088194444401</v>
+      </c>
+      <c r="S435" s="3"/>
+      <c r="T435" s="3">
+        <v>280.5</v>
+      </c>
+      <c r="U435" s="3"/>
+      <c r="V435" s="3"/>
+      <c r="W435" s="3">
+        <v>280.5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>22</v>
+      </c>
+      <c r="C436" t="s">
+        <v>102</v>
+      </c>
+      <c r="D436" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E436" s="1">
+        <v>45821.958333333299</v>
+      </c>
+      <c r="K436" t="s">
+        <v>62</v>
+      </c>
+      <c r="P436" s="2">
+        <v>25569.0847222222</v>
+      </c>
+      <c r="S436" s="3"/>
+      <c r="T436" s="3"/>
+      <c r="U436" s="3"/>
+      <c r="V436" s="3"/>
+      <c r="W436" s="3"/>
+    </row>
+    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>95</v>
+      </c>
+      <c r="C437" t="s">
+        <v>56</v>
+      </c>
+      <c r="D437" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E437" s="1">
+        <v>45825.958333333299</v>
+      </c>
+      <c r="G437" t="s">
+        <v>513</v>
+      </c>
+      <c r="I437" t="s">
+        <v>356</v>
+      </c>
+      <c r="J437" t="s">
+        <v>357</v>
+      </c>
+      <c r="K437" t="s">
+        <v>225</v>
+      </c>
+      <c r="O437" t="s">
+        <v>358</v>
+      </c>
+      <c r="P437" s="2">
+        <v>25569.022916666701</v>
+      </c>
+      <c r="S437" s="3"/>
+      <c r="T437" s="3">
+        <v>139.5</v>
+      </c>
+      <c r="U437" s="3"/>
+      <c r="V437" s="3"/>
+      <c r="W437" s="3">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>25</v>
+      </c>
+      <c r="C438" t="s">
+        <v>56</v>
+      </c>
+      <c r="D438" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E438" s="1">
+        <v>45825.958333333299</v>
+      </c>
+      <c r="F438" t="s">
+        <v>514</v>
+      </c>
+      <c r="J438" t="s">
+        <v>515</v>
+      </c>
+      <c r="K438" t="s">
+        <v>28</v>
+      </c>
+      <c r="P438" s="2">
+        <v>25569.0715277778</v>
+      </c>
+      <c r="S438" s="3"/>
+      <c r="T438" s="3"/>
+      <c r="U438" s="3"/>
+      <c r="V438" s="3"/>
+      <c r="W438" s="3">
+        <v>244.5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>25</v>
+      </c>
+      <c r="C439" t="s">
+        <v>41</v>
+      </c>
+      <c r="D439" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E439" s="1">
+        <v>45825.958333333299</v>
+      </c>
+      <c r="F439" t="s">
+        <v>516</v>
+      </c>
+      <c r="J439" t="s">
+        <v>517</v>
+      </c>
+      <c r="K439" t="s">
+        <v>28</v>
+      </c>
+      <c r="P439" s="2">
+        <v>25569.031944444399</v>
+      </c>
+      <c r="S439" s="3"/>
+      <c r="T439" s="3"/>
+      <c r="U439" s="3"/>
+      <c r="V439" s="3"/>
+      <c r="W439" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>38</v>
+      </c>
+      <c r="C440" t="s">
+        <v>41</v>
+      </c>
+      <c r="D440" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E440" s="1">
+        <v>45825.958333333299</v>
+      </c>
+      <c r="K440" t="s">
+        <v>42</v>
+      </c>
+      <c r="P440" s="2">
+        <v>25569.106250000001</v>
+      </c>
+      <c r="S440" s="3"/>
+      <c r="T440" s="3">
+        <v>319.5</v>
+      </c>
+      <c r="U440" s="3"/>
+      <c r="V440" s="3"/>
+      <c r="W440" s="3">
+        <v>319.5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>22</v>
+      </c>
+      <c r="C441" t="s">
+        <v>75</v>
+      </c>
+      <c r="D441" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E441" s="1">
+        <v>45825.958333333299</v>
+      </c>
+      <c r="K441" t="s">
+        <v>24</v>
+      </c>
+      <c r="P441" s="2">
+        <v>25569.333333333299</v>
+      </c>
+      <c r="S441" s="3"/>
+      <c r="T441" s="3"/>
+      <c r="U441" s="3"/>
+      <c r="V441" s="3"/>
+      <c r="W441" s="3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>25</v>
+      </c>
+      <c r="C442" t="s">
+        <v>57</v>
+      </c>
+      <c r="D442" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E442" s="1">
+        <v>45825.958333333299</v>
+      </c>
+      <c r="F442" t="s">
+        <v>518</v>
+      </c>
+      <c r="J442" t="s">
+        <v>519</v>
+      </c>
+      <c r="K442" t="s">
+        <v>143</v>
+      </c>
+      <c r="P442" s="2">
+        <v>25569.087500000001</v>
+      </c>
+      <c r="S442" s="3"/>
+      <c r="T442" s="3"/>
+      <c r="U442" s="3"/>
+      <c r="V442" s="3"/>
+      <c r="W442" s="3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>38</v>
+      </c>
+      <c r="C443" t="s">
+        <v>39</v>
+      </c>
+      <c r="D443" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E443" s="1">
+        <v>45824.958333333299</v>
+      </c>
+      <c r="K443" t="s">
+        <v>42</v>
+      </c>
+      <c r="P443" s="2">
+        <v>25569.0847222222</v>
+      </c>
+      <c r="S443" s="3"/>
+      <c r="T443" s="3">
+        <v>273</v>
+      </c>
+      <c r="U443" s="3"/>
+      <c r="V443" s="3"/>
+      <c r="W443" s="3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>29</v>
+      </c>
+      <c r="C444" t="s">
+        <v>520</v>
+      </c>
+      <c r="D444" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E444" s="1">
+        <v>45838.958333333299</v>
+      </c>
+      <c r="H444" t="s">
+        <v>119</v>
+      </c>
+      <c r="L444">
+        <v>2000235044</v>
+      </c>
+      <c r="M444" t="s">
+        <v>521</v>
+      </c>
+      <c r="N444" t="s">
+        <v>34</v>
+      </c>
+      <c r="O444" t="s">
+        <v>121</v>
+      </c>
+      <c r="P444" s="2">
+        <v>25569.208333333299</v>
+      </c>
+      <c r="Q444" t="s">
+        <v>522</v>
+      </c>
+      <c r="S444" s="3">
+        <v>60</v>
+      </c>
+      <c r="T444" s="3">
+        <v>4860</v>
+      </c>
+      <c r="U444" s="3"/>
+      <c r="V444" s="3">
+        <v>0</v>
+      </c>
+      <c r="W444" s="3">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>25</v>
+      </c>
+      <c r="C445" t="s">
+        <v>56</v>
+      </c>
+      <c r="D445" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E445" s="1">
+        <v>45826.958333333299</v>
+      </c>
+      <c r="F445" t="s">
+        <v>523</v>
+      </c>
+      <c r="J445" t="s">
+        <v>524</v>
+      </c>
+      <c r="K445" t="s">
+        <v>28</v>
+      </c>
+      <c r="P445" s="2">
+        <v>25569.105555555601</v>
+      </c>
+      <c r="S445" s="3"/>
+      <c r="T445" s="3"/>
+      <c r="U445" s="3"/>
+      <c r="V445" s="3"/>
+      <c r="W445" s="3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>25</v>
+      </c>
+      <c r="C446" t="s">
+        <v>129</v>
+      </c>
+      <c r="D446" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E446" s="1">
+        <v>45826.958333333299</v>
+      </c>
+      <c r="F446" t="s">
+        <v>525</v>
+      </c>
+      <c r="J446" t="s">
+        <v>526</v>
+      </c>
+      <c r="K446" t="s">
+        <v>72</v>
+      </c>
+      <c r="P446" s="2">
+        <v>25569.083333333299</v>
+      </c>
+      <c r="S446" s="3"/>
+      <c r="T446" s="3"/>
+      <c r="U446" s="3"/>
+      <c r="V446" s="3"/>
+      <c r="W446" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>190</v>
+      </c>
+      <c r="C447" t="s">
+        <v>520</v>
+      </c>
+      <c r="D447" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E447" s="1">
+        <v>45838.958333333299</v>
+      </c>
+      <c r="F447" t="s">
+        <v>100</v>
+      </c>
+      <c r="H447" t="s">
+        <v>119</v>
+      </c>
+      <c r="L447">
+        <v>2000235044</v>
+      </c>
+      <c r="M447" t="s">
+        <v>527</v>
+      </c>
+      <c r="N447" t="s">
+        <v>528</v>
+      </c>
+      <c r="O447" t="s">
+        <v>121</v>
+      </c>
+      <c r="P447" s="2">
+        <v>25569.083333333299</v>
+      </c>
+      <c r="R447" t="s">
+        <v>529</v>
+      </c>
+      <c r="S447" s="3"/>
+      <c r="T447" s="3">
+        <v>270</v>
+      </c>
+      <c r="U447" s="3"/>
+      <c r="V447" s="3">
+        <v>0</v>
+      </c>
+      <c r="W447" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>105</v>
+      </c>
+      <c r="C448" t="s">
+        <v>90</v>
+      </c>
+      <c r="D448" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E448" s="1">
+        <v>45826.958333333299</v>
+      </c>
+      <c r="J448" t="s">
+        <v>213</v>
+      </c>
+      <c r="P448" s="2">
+        <v>25569.375</v>
+      </c>
+      <c r="Q448" t="s">
+        <v>183</v>
+      </c>
+      <c r="R448" t="s">
+        <v>183</v>
+      </c>
+      <c r="S448" s="3">
+        <v>0</v>
+      </c>
+      <c r="T448" s="3">
+        <v>810</v>
+      </c>
+      <c r="U448" s="3"/>
+      <c r="V448" s="3"/>
+      <c r="W448" s="3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>38</v>
+      </c>
+      <c r="C449" t="s">
+        <v>88</v>
+      </c>
+      <c r="D449" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E449" s="1">
+        <v>45826.958333333299</v>
+      </c>
+      <c r="K449" t="s">
+        <v>40</v>
+      </c>
+      <c r="P449" s="2">
+        <v>25569.099305555599</v>
+      </c>
+      <c r="S449" s="3"/>
+      <c r="T449" s="3">
+        <v>304.5</v>
+      </c>
+      <c r="U449" s="3"/>
+      <c r="V449" s="3"/>
+      <c r="W449" s="3">
+        <v>304.5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>38</v>
+      </c>
+      <c r="C450" t="s">
+        <v>43</v>
+      </c>
+      <c r="D450" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E450" s="1">
+        <v>45826.958333333299</v>
+      </c>
+      <c r="K450" t="s">
+        <v>148</v>
+      </c>
+      <c r="P450" s="2">
+        <v>25569.084027777801</v>
+      </c>
+      <c r="S450" s="3"/>
+      <c r="T450" s="3">
+        <v>271.5</v>
+      </c>
+      <c r="U450" s="3"/>
+      <c r="V450" s="3"/>
+      <c r="W450" s="3">
+        <v>271.5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>38</v>
+      </c>
+      <c r="C451" t="s">
+        <v>88</v>
+      </c>
+      <c r="D451" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E451" s="1">
+        <v>45826.958333333299</v>
+      </c>
+      <c r="K451" t="s">
+        <v>42</v>
+      </c>
+      <c r="P451" s="2">
+        <v>25569.1381944444</v>
+      </c>
+      <c r="S451" s="3"/>
+      <c r="T451" s="3">
+        <v>388.5</v>
+      </c>
+      <c r="U451" s="3"/>
+      <c r="V451" s="3"/>
+      <c r="W451" s="3">
+        <v>388.5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>38</v>
+      </c>
+      <c r="C452" t="s">
+        <v>56</v>
+      </c>
+      <c r="D452" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E452" s="1">
+        <v>45826.958333333299</v>
+      </c>
+      <c r="K452" t="s">
+        <v>42</v>
+      </c>
+      <c r="P452" s="2">
+        <v>25569.123611111099</v>
+      </c>
+      <c r="S452" s="3"/>
+      <c r="T452" s="3">
+        <v>357</v>
+      </c>
+      <c r="U452" s="3"/>
+      <c r="V452" s="3"/>
+      <c r="W452" s="3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>38</v>
+      </c>
+      <c r="C453" t="s">
+        <v>23</v>
+      </c>
+      <c r="D453" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E453" s="1">
+        <v>45826.958333333299</v>
+      </c>
+      <c r="K453" t="s">
+        <v>40</v>
+      </c>
+      <c r="P453" s="2">
+        <v>25569.291666666701</v>
+      </c>
+      <c r="S453" s="3"/>
+      <c r="T453" s="3">
+        <v>720</v>
+      </c>
+      <c r="U453" s="3"/>
+      <c r="V453" s="3"/>
+      <c r="W453" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>22</v>
+      </c>
+      <c r="C454" t="s">
+        <v>23</v>
+      </c>
+      <c r="D454" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E454" s="1">
+        <v>45826.958333333299</v>
+      </c>
+      <c r="K454" t="s">
+        <v>24</v>
+      </c>
+      <c r="P454" s="2">
+        <v>25569.024305555598</v>
+      </c>
+      <c r="S454" s="3"/>
+      <c r="T454" s="3"/>
+      <c r="U454" s="3"/>
+      <c r="V454" s="3"/>
+      <c r="W454" s="3">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>25</v>
+      </c>
+      <c r="C455" t="s">
+        <v>23</v>
+      </c>
+      <c r="D455" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E455" s="1">
+        <v>45825.958333333299</v>
+      </c>
+      <c r="F455" t="s">
+        <v>530</v>
+      </c>
+      <c r="J455" t="s">
+        <v>531</v>
+      </c>
+      <c r="K455" t="s">
+        <v>28</v>
+      </c>
+      <c r="P455" s="2">
+        <v>25569.022916666701</v>
+      </c>
+      <c r="S455" s="3"/>
+      <c r="T455" s="3"/>
+      <c r="U455" s="3"/>
+      <c r="V455" s="3"/>
+      <c r="W455" s="3">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>38</v>
+      </c>
+      <c r="C456" t="s">
+        <v>39</v>
+      </c>
+      <c r="D456" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E456" s="1">
+        <v>45826.958333333299</v>
+      </c>
+      <c r="K456" t="s">
+        <v>42</v>
+      </c>
+      <c r="P456" s="2">
+        <v>25569.145833333299</v>
+      </c>
+      <c r="S456" s="3"/>
+      <c r="T456" s="3">
+        <v>405</v>
+      </c>
+      <c r="U456" s="3"/>
+      <c r="V456" s="3"/>
+      <c r="W456" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>38</v>
+      </c>
+      <c r="C457" t="s">
+        <v>39</v>
+      </c>
+      <c r="D457" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E457" s="1">
+        <v>45826.958333333299</v>
+      </c>
+      <c r="K457" t="s">
+        <v>40</v>
+      </c>
+      <c r="P457" s="2">
+        <v>25569.127777777801</v>
+      </c>
+      <c r="S457" s="3"/>
+      <c r="T457" s="3">
+        <v>366</v>
+      </c>
+      <c r="U457" s="3"/>
+      <c r="V457" s="3"/>
+      <c r="W457" s="3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>25</v>
+      </c>
+      <c r="C458" t="s">
+        <v>41</v>
+      </c>
+      <c r="D458" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E458" s="1">
+        <v>45826.958333333299</v>
+      </c>
+      <c r="F458" t="s">
+        <v>532</v>
+      </c>
+      <c r="J458" t="s">
+        <v>533</v>
+      </c>
+      <c r="K458" t="s">
+        <v>28</v>
+      </c>
+      <c r="P458" s="2">
+        <v>25569.050694444399</v>
+      </c>
+      <c r="S458" s="3"/>
+      <c r="T458" s="3"/>
+      <c r="U458" s="3"/>
+      <c r="V458" s="3"/>
+      <c r="W458" s="3">
+        <v>199.5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>38</v>
+      </c>
+      <c r="C459" t="s">
+        <v>41</v>
+      </c>
+      <c r="D459" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E459" s="1">
+        <v>45826.958333333299</v>
+      </c>
+      <c r="K459" t="s">
+        <v>42</v>
+      </c>
+      <c r="P459" s="2">
+        <v>25569.009722222199</v>
+      </c>
+      <c r="S459" s="3"/>
+      <c r="T459" s="3">
+        <v>111</v>
+      </c>
+      <c r="U459" s="3"/>
+      <c r="V459" s="3"/>
+      <c r="W459" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>22</v>
+      </c>
+      <c r="C460" t="s">
+        <v>129</v>
+      </c>
+      <c r="D460" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E460" s="1">
+        <v>45826.958333333299</v>
+      </c>
+      <c r="K460" t="s">
+        <v>24</v>
+      </c>
+      <c r="P460" s="2">
+        <v>25569.208333333299</v>
+      </c>
+      <c r="S460" s="3"/>
+      <c r="T460" s="3"/>
+      <c r="U460" s="3"/>
+      <c r="V460" s="3"/>
+      <c r="W460" s="3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>25</v>
+      </c>
+      <c r="C461" t="s">
+        <v>39</v>
+      </c>
+      <c r="D461" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E461" s="1">
+        <v>45827.958333333299</v>
+      </c>
+      <c r="F461" t="s">
+        <v>534</v>
+      </c>
+      <c r="J461" t="s">
+        <v>535</v>
+      </c>
+      <c r="K461" t="s">
+        <v>143</v>
+      </c>
+      <c r="P461" s="2">
+        <v>25569.0513888889</v>
+      </c>
+      <c r="S461" s="3"/>
+      <c r="T461" s="3"/>
+      <c r="U461" s="3"/>
+      <c r="V461" s="3"/>
+      <c r="W461" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>25</v>
+      </c>
+      <c r="C462" t="s">
+        <v>39</v>
+      </c>
+      <c r="D462" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E462" s="1">
+        <v>45827.958333333299</v>
+      </c>
+      <c r="F462" t="s">
+        <v>536</v>
+      </c>
+      <c r="J462" t="s">
+        <v>537</v>
+      </c>
+      <c r="K462" t="s">
+        <v>143</v>
+      </c>
+      <c r="P462" s="2">
+        <v>25569.043055555601</v>
+      </c>
+      <c r="S462" s="3"/>
+      <c r="T462" s="3"/>
+      <c r="U462" s="3"/>
+      <c r="V462" s="3"/>
+      <c r="W462" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>105</v>
+      </c>
+      <c r="C463" t="s">
+        <v>90</v>
+      </c>
+      <c r="D463" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E463" s="1">
+        <v>45827.958333333299</v>
+      </c>
+      <c r="J463" t="s">
+        <v>538</v>
+      </c>
+      <c r="P463" s="2">
+        <v>25569.375</v>
+      </c>
+      <c r="Q463" t="s">
+        <v>183</v>
+      </c>
+      <c r="R463" t="s">
+        <v>183</v>
+      </c>
+      <c r="S463" s="3">
+        <v>0</v>
+      </c>
+      <c r="T463" s="3">
+        <v>810</v>
+      </c>
+      <c r="U463" s="3"/>
+      <c r="V463" s="3"/>
+      <c r="W463" s="3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>25</v>
+      </c>
+      <c r="C464" t="s">
+        <v>23</v>
+      </c>
+      <c r="D464" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E464" s="1">
+        <v>45827.958333333299</v>
+      </c>
+      <c r="F464" t="s">
+        <v>539</v>
+      </c>
+      <c r="J464" t="s">
+        <v>540</v>
+      </c>
+      <c r="K464" t="s">
+        <v>28</v>
+      </c>
+      <c r="P464" s="2">
+        <v>25569.1875</v>
+      </c>
+      <c r="S464" s="3"/>
+      <c r="T464" s="3"/>
+      <c r="U464" s="3"/>
+      <c r="V464" s="3"/>
+      <c r="W464" s="3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>38</v>
+      </c>
+      <c r="C465" t="s">
+        <v>129</v>
+      </c>
+      <c r="D465" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E465" s="1">
+        <v>45827.958333333299</v>
+      </c>
+      <c r="K465" t="s">
+        <v>40</v>
+      </c>
+      <c r="P465" s="2">
+        <v>25569.291666666701</v>
+      </c>
+      <c r="S465" s="3"/>
+      <c r="T465" s="3">
+        <v>720</v>
+      </c>
+      <c r="U465" s="3"/>
+      <c r="V465" s="3"/>
+      <c r="W465" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>38</v>
+      </c>
+      <c r="C466" t="s">
+        <v>39</v>
+      </c>
+      <c r="D466" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E466" s="1">
+        <v>45827.958333333299</v>
+      </c>
+      <c r="K466" t="s">
+        <v>40</v>
+      </c>
+      <c r="P466" s="2">
+        <v>25569.052083333299</v>
+      </c>
+      <c r="S466" s="3"/>
+      <c r="T466" s="3">
+        <v>202.5</v>
+      </c>
+      <c r="U466" s="3"/>
+      <c r="V466" s="3"/>
+      <c r="W466" s="3">
+        <v>202.5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>25</v>
+      </c>
+      <c r="C467" t="s">
+        <v>102</v>
+      </c>
+      <c r="D467" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E467" s="1">
+        <v>45827.958333333299</v>
+      </c>
+      <c r="F467" t="s">
+        <v>541</v>
+      </c>
+      <c r="J467" t="s">
+        <v>542</v>
+      </c>
+      <c r="K467" t="s">
+        <v>143</v>
+      </c>
+      <c r="P467" s="2">
+        <v>25569.0493055556</v>
+      </c>
+      <c r="S467" s="3"/>
+      <c r="T467" s="3"/>
+      <c r="U467" s="3"/>
+      <c r="V467" s="3"/>
+      <c r="W467" s="3"/>
+    </row>
+    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>25</v>
+      </c>
+      <c r="C468" t="s">
+        <v>198</v>
+      </c>
+      <c r="D468" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E468" s="1">
+        <v>45827.958333333299</v>
+      </c>
+      <c r="F468" t="s">
+        <v>543</v>
+      </c>
+      <c r="J468" t="s">
+        <v>544</v>
+      </c>
+      <c r="K468" t="s">
+        <v>143</v>
+      </c>
+      <c r="P468" s="2">
+        <v>25569.118750000001</v>
+      </c>
+      <c r="S468" s="3"/>
+      <c r="T468" s="3"/>
+      <c r="U468" s="3"/>
+      <c r="V468" s="3"/>
+      <c r="W468" s="3"/>
+    </row>
+    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>63</v>
+      </c>
+      <c r="C469" t="s">
+        <v>545</v>
+      </c>
+      <c r="D469" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E469" s="1">
+        <v>45828.958333333299</v>
+      </c>
+      <c r="F469" t="s">
+        <v>546</v>
+      </c>
+      <c r="J469" t="s">
+        <v>547</v>
+      </c>
+      <c r="K469" t="s">
+        <v>78</v>
+      </c>
+      <c r="P469" s="2"/>
+      <c r="S469" s="3"/>
+      <c r="T469" s="3"/>
+      <c r="U469" s="3"/>
+      <c r="V469" s="3"/>
+      <c r="W469" s="3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>63</v>
+      </c>
+      <c r="C470" t="s">
+        <v>43</v>
+      </c>
+      <c r="D470" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E470" s="1">
+        <v>45828.958333333299</v>
+      </c>
+      <c r="F470" t="s">
+        <v>548</v>
+      </c>
+      <c r="J470" t="s">
+        <v>549</v>
+      </c>
+      <c r="K470" t="s">
+        <v>66</v>
+      </c>
+      <c r="P470" s="2"/>
+      <c r="S470" s="3"/>
+      <c r="T470" s="3"/>
+      <c r="U470" s="3"/>
+      <c r="V470" s="3"/>
+      <c r="W470" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>25</v>
+      </c>
+      <c r="C471" t="s">
+        <v>129</v>
+      </c>
+      <c r="D471" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E471" s="1">
+        <v>45828.958333333299</v>
+      </c>
+      <c r="F471" t="s">
+        <v>550</v>
+      </c>
+      <c r="J471" t="s">
+        <v>551</v>
+      </c>
+      <c r="K471" t="s">
+        <v>28</v>
+      </c>
+      <c r="P471" s="2">
+        <v>25569.25</v>
+      </c>
+      <c r="S471" s="3"/>
+      <c r="T471" s="3"/>
+      <c r="U471" s="3"/>
+      <c r="V471" s="3"/>
+      <c r="W471" s="3">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>190</v>
+      </c>
+      <c r="C472" t="s">
+        <v>552</v>
+      </c>
+      <c r="D472" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E472" s="1">
+        <v>45828.958333333299</v>
+      </c>
+      <c r="F472" t="s">
+        <v>553</v>
+      </c>
+      <c r="H472" t="s">
+        <v>192</v>
+      </c>
+      <c r="L472">
+        <v>100002555</v>
+      </c>
+      <c r="M472" t="s">
+        <v>554</v>
+      </c>
+      <c r="N472" t="s">
+        <v>555</v>
+      </c>
+      <c r="O472" t="s">
+        <v>556</v>
+      </c>
+      <c r="P472" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q472" t="s">
+        <v>557</v>
+      </c>
+      <c r="R472" t="s">
+        <v>558</v>
+      </c>
+      <c r="S472" s="3">
+        <v>168.81</v>
+      </c>
+      <c r="T472" s="3">
+        <v>540</v>
+      </c>
+      <c r="U472" s="3"/>
+      <c r="V472" s="3">
+        <v>350</v>
+      </c>
+      <c r="W472" s="3">
+        <v>1058.81</v>
+      </c>
+    </row>
+    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>190</v>
+      </c>
+      <c r="C473" t="s">
+        <v>90</v>
+      </c>
+      <c r="D473" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E473" s="1">
+        <v>45828.958333333299</v>
+      </c>
+      <c r="F473" t="s">
+        <v>559</v>
+      </c>
+      <c r="H473" t="s">
+        <v>192</v>
+      </c>
+      <c r="L473">
+        <v>0</v>
+      </c>
+      <c r="M473" t="s">
+        <v>560</v>
+      </c>
+      <c r="N473" t="s">
+        <v>34</v>
+      </c>
+      <c r="O473" t="s">
+        <v>561</v>
+      </c>
+      <c r="P473" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q473" t="s">
+        <v>562</v>
+      </c>
+      <c r="R473" t="s">
+        <v>563</v>
+      </c>
+      <c r="S473" s="3">
+        <v>63.56</v>
+      </c>
+      <c r="T473" s="3">
+        <v>270</v>
+      </c>
+      <c r="U473" s="3"/>
+      <c r="V473" s="3">
+        <v>0</v>
+      </c>
+      <c r="W473" s="3">
+        <v>333.56</v>
+      </c>
+    </row>
+    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>190</v>
+      </c>
+      <c r="C474" t="s">
+        <v>90</v>
+      </c>
+      <c r="D474" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E474" s="1">
+        <v>45828.958333333299</v>
+      </c>
+      <c r="F474" t="s">
+        <v>100</v>
+      </c>
+      <c r="H474" t="s">
+        <v>192</v>
+      </c>
+      <c r="L474" t="s">
+        <v>185</v>
+      </c>
+      <c r="M474" t="s">
+        <v>560</v>
+      </c>
+      <c r="N474" t="s">
+        <v>34</v>
+      </c>
+      <c r="O474" t="s">
+        <v>561</v>
+      </c>
+      <c r="P474" s="2">
+        <v>2</v>
+      </c>
+      <c r="R474" t="s">
+        <v>563</v>
+      </c>
+      <c r="S474" s="3"/>
+      <c r="T474" s="3">
+        <v>270</v>
+      </c>
+      <c r="U474" s="3"/>
+      <c r="V474" s="3">
+        <v>0</v>
+      </c>
+      <c r="W474" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>22</v>
+      </c>
+      <c r="C475" t="s">
+        <v>545</v>
+      </c>
+      <c r="D475" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E475" s="1">
+        <v>45828.958333333299</v>
+      </c>
+      <c r="K475" t="s">
+        <v>24</v>
+      </c>
+      <c r="P475" s="2">
+        <v>25569.166666666701</v>
+      </c>
+      <c r="S475" s="3"/>
+      <c r="T475" s="3"/>
+      <c r="U475" s="3"/>
+      <c r="V475" s="3"/>
+      <c r="W475" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>22</v>
+      </c>
+      <c r="C476" t="s">
+        <v>75</v>
+      </c>
+      <c r="D476" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E476" s="1">
+        <v>45828.958333333299</v>
+      </c>
+      <c r="K476" t="s">
+        <v>24</v>
+      </c>
+      <c r="P476" s="2">
+        <v>25569.333333333299</v>
+      </c>
+      <c r="S476" s="3"/>
+      <c r="T476" s="3"/>
+      <c r="U476" s="3"/>
+      <c r="V476" s="3"/>
+      <c r="W476" s="3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>38</v>
+      </c>
+      <c r="C477" t="s">
+        <v>90</v>
+      </c>
+      <c r="D477" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E477" s="1">
+        <v>45828.958333333299</v>
+      </c>
+      <c r="K477" t="s">
+        <v>42</v>
+      </c>
+      <c r="P477" s="2">
+        <v>25569.333333333299</v>
+      </c>
+      <c r="S477" s="3"/>
+      <c r="T477" s="3">
+        <v>810</v>
+      </c>
+      <c r="U477" s="3"/>
+      <c r="V477" s="3"/>
+      <c r="W477" s="3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>25</v>
+      </c>
+      <c r="C478" t="s">
+        <v>102</v>
+      </c>
+      <c r="D478" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E478" s="1">
+        <v>45828.958333333299</v>
+      </c>
+      <c r="F478" t="s">
+        <v>564</v>
+      </c>
+      <c r="J478" t="s">
+        <v>565</v>
+      </c>
+      <c r="K478" t="s">
+        <v>28</v>
+      </c>
+      <c r="P478" s="2">
+        <v>25569.2944444444</v>
+      </c>
+      <c r="S478" s="3"/>
+      <c r="T478" s="3"/>
+      <c r="U478" s="3"/>
+      <c r="V478" s="3"/>
+      <c r="W478" s="3"/>
+    </row>
+    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>22</v>
+      </c>
+      <c r="C479" t="s">
+        <v>56</v>
+      </c>
+      <c r="D479" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E479" s="1">
+        <v>45829.958333333299</v>
+      </c>
+      <c r="K479" t="s">
+        <v>49</v>
+      </c>
+      <c r="P479" s="2">
+        <v>25569.308333333302</v>
+      </c>
+      <c r="S479" s="3"/>
+      <c r="T479" s="3"/>
+      <c r="U479" s="3"/>
+      <c r="V479" s="3"/>
+      <c r="W479" s="3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="480" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>22</v>
+      </c>
+      <c r="C480" t="s">
+        <v>39</v>
+      </c>
+      <c r="D480" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E480" s="1">
+        <v>45829.958333333299</v>
+      </c>
+      <c r="K480" t="s">
+        <v>62</v>
+      </c>
+      <c r="P480" s="2">
+        <v>25569.387500000001</v>
+      </c>
+      <c r="S480" s="3"/>
+      <c r="T480" s="3"/>
+      <c r="U480" s="3"/>
+      <c r="V480" s="3"/>
+      <c r="W480" s="3">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>22</v>
+      </c>
+      <c r="C481" t="s">
+        <v>56</v>
+      </c>
+      <c r="D481" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E481" s="1">
+        <v>45830.958333333299</v>
+      </c>
+      <c r="K481" t="s">
+        <v>49</v>
+      </c>
+      <c r="P481" s="2">
+        <v>25569.3548611111</v>
+      </c>
+      <c r="S481" s="3"/>
+      <c r="T481" s="3"/>
+      <c r="U481" s="3"/>
+      <c r="V481" s="3"/>
+      <c r="W481" s="3">
+        <v>856.5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>22</v>
+      </c>
+      <c r="C482" t="s">
+        <v>39</v>
+      </c>
+      <c r="D482" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E482" s="1">
+        <v>45830.958333333299</v>
+      </c>
+      <c r="K482" t="s">
+        <v>62</v>
+      </c>
+      <c r="P482" s="2">
+        <v>25569.331944444399</v>
+      </c>
+      <c r="S482" s="3"/>
+      <c r="T482" s="3"/>
+      <c r="U482" s="3"/>
+      <c r="V482" s="3"/>
+      <c r="W482" s="3">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>95</v>
+      </c>
+      <c r="C483" t="s">
+        <v>129</v>
+      </c>
+      <c r="D483" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E483" s="1">
+        <v>45831.958333333299</v>
+      </c>
+      <c r="G483" t="s">
+        <v>566</v>
+      </c>
+      <c r="I483" t="s">
+        <v>567</v>
+      </c>
+      <c r="J483" t="s">
+        <v>568</v>
+      </c>
+      <c r="K483" t="s">
+        <v>225</v>
+      </c>
+      <c r="O483" t="s">
+        <v>569</v>
+      </c>
+      <c r="P483" s="2"/>
+      <c r="S483" s="3"/>
+      <c r="T483" s="3">
+        <v>0</v>
+      </c>
+      <c r="U483" s="3"/>
+      <c r="V483" s="3"/>
+      <c r="W483" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>25</v>
+      </c>
+      <c r="C484" t="s">
+        <v>48</v>
+      </c>
+      <c r="D484" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E484" s="1">
+        <v>45831.958333333299</v>
+      </c>
+      <c r="F484" t="s">
+        <v>570</v>
+      </c>
+      <c r="J484" t="s">
+        <v>571</v>
+      </c>
+      <c r="K484" t="s">
+        <v>143</v>
+      </c>
+      <c r="P484" s="2">
+        <v>25569.079166666699</v>
+      </c>
+      <c r="S484" s="3"/>
+      <c r="T484" s="3"/>
+      <c r="U484" s="3"/>
+      <c r="V484" s="3"/>
+      <c r="W484" s="3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>25</v>
+      </c>
+      <c r="C485" t="s">
+        <v>115</v>
+      </c>
+      <c r="D485" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E485" s="1">
+        <v>45831.958333333299</v>
+      </c>
+      <c r="F485" t="s">
+        <v>572</v>
+      </c>
+      <c r="J485" t="s">
+        <v>573</v>
+      </c>
+      <c r="K485" t="s">
+        <v>28</v>
+      </c>
+      <c r="P485" s="2">
+        <v>25569.013888888901</v>
+      </c>
+      <c r="S485" s="3"/>
+      <c r="T485" s="3"/>
+      <c r="U485" s="3"/>
+      <c r="V485" s="3"/>
+      <c r="W485" s="3"/>
+    </row>
+    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>63</v>
+      </c>
+      <c r="C486" t="s">
+        <v>41</v>
+      </c>
+      <c r="D486" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E486" s="1">
+        <v>45831.958333333299</v>
+      </c>
+      <c r="F486" t="s">
+        <v>574</v>
+      </c>
+      <c r="J486" t="s">
+        <v>575</v>
+      </c>
+      <c r="K486" t="s">
+        <v>74</v>
+      </c>
+      <c r="P486" s="2"/>
+      <c r="S486" s="3"/>
+      <c r="T486" s="3"/>
+      <c r="U486" s="3"/>
+      <c r="V486" s="3"/>
+      <c r="W486" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>95</v>
+      </c>
+      <c r="C487" t="s">
+        <v>41</v>
+      </c>
+      <c r="D487" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E487" s="1">
+        <v>45831.958333333299</v>
+      </c>
+      <c r="G487" t="s">
+        <v>576</v>
+      </c>
+      <c r="I487" t="s">
+        <v>577</v>
+      </c>
+      <c r="J487" t="s">
+        <v>578</v>
+      </c>
+      <c r="K487" t="s">
+        <v>225</v>
+      </c>
+      <c r="O487" t="s">
+        <v>579</v>
+      </c>
+      <c r="P487" s="2">
+        <v>25569.067361111101</v>
+      </c>
+      <c r="S487" s="3"/>
+      <c r="T487" s="3">
+        <v>235.5</v>
+      </c>
+      <c r="U487" s="3"/>
+      <c r="V487" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="W487" s="3"/>
+    </row>
+    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>25</v>
+      </c>
+      <c r="C488" t="s">
+        <v>115</v>
+      </c>
+      <c r="D488" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E488" s="1">
+        <v>45831.958333333299</v>
+      </c>
+      <c r="F488" t="s">
+        <v>581</v>
+      </c>
+      <c r="J488" t="s">
+        <v>582</v>
+      </c>
+      <c r="K488" t="s">
+        <v>28</v>
+      </c>
+      <c r="P488" s="2">
+        <v>25569.028472222199</v>
+      </c>
+      <c r="S488" s="3"/>
+      <c r="T488" s="3"/>
+      <c r="U488" s="3"/>
+      <c r="V488" s="3"/>
+      <c r="W488" s="3">
+        <v>151.5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>38</v>
+      </c>
+      <c r="C489" t="s">
+        <v>48</v>
+      </c>
+      <c r="D489" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E489" s="1">
+        <v>45831.958333333299</v>
+      </c>
+      <c r="K489" t="s">
+        <v>40</v>
+      </c>
+      <c r="P489" s="2">
+        <v>25569.087500000001</v>
+      </c>
+      <c r="S489" s="3"/>
+      <c r="T489" s="3">
+        <v>279</v>
+      </c>
+      <c r="U489" s="3"/>
+      <c r="V489" s="3"/>
+      <c r="W489" s="3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="490" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>25</v>
+      </c>
+      <c r="C490" t="s">
+        <v>43</v>
+      </c>
+      <c r="D490" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP South</v>
+      </c>
+      <c r="E490" s="1">
+        <v>45831.958333333299</v>
+      </c>
+      <c r="F490" t="s">
+        <v>583</v>
+      </c>
+      <c r="J490" t="s">
+        <v>584</v>
+      </c>
+      <c r="K490" t="s">
+        <v>143</v>
+      </c>
+      <c r="P490" s="2">
+        <v>25569.03125</v>
+      </c>
+      <c r="S490" s="3"/>
+      <c r="T490" s="3"/>
+      <c r="U490" s="3"/>
+      <c r="V490" s="3"/>
+      <c r="W490" s="3">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>38</v>
+      </c>
+      <c r="C491" t="s">
+        <v>129</v>
+      </c>
+      <c r="D491" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E491" s="1">
+        <v>45831.958333333299</v>
+      </c>
+      <c r="K491" t="s">
+        <v>40</v>
+      </c>
+      <c r="P491" s="2">
+        <v>25569.25</v>
+      </c>
+      <c r="S491" s="3"/>
+      <c r="T491" s="3">
+        <v>630</v>
+      </c>
+      <c r="U491" s="3"/>
+      <c r="V491" s="3"/>
+      <c r="W491" s="3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="492" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>22</v>
+      </c>
+      <c r="C492" t="s">
+        <v>23</v>
+      </c>
+      <c r="D492" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E492" s="1">
+        <v>45831.958333333299</v>
+      </c>
+      <c r="K492" t="s">
+        <v>24</v>
+      </c>
+      <c r="P492" s="2">
+        <v>25569.28125</v>
+      </c>
+      <c r="S492" s="3"/>
+      <c r="T492" s="3"/>
+      <c r="U492" s="3"/>
+      <c r="V492" s="3"/>
+      <c r="W492" s="3">
+        <v>697.5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>63</v>
+      </c>
+      <c r="C493" t="s">
+        <v>23</v>
+      </c>
+      <c r="D493" t="str">
+        <f>IFERROR(VLOOKUP([1]!Table38[[#This Row],[Engineers Name]],[1]!Table343[#Data],2,FALSE),"")</f>
+        <v>VIP North</v>
+      </c>
+      <c r="E493" s="1">
+        <v>45831.958333333299</v>
+      </c>
+      <c r="F493" t="s">
+        <v>585</v>
+      </c>
+      <c r="J493" t="s">
+        <v>586</v>
+      </c>
+      <c r="K493" t="s">
+        <v>78</v>
+      </c>
+      <c r="P493" s="2"/>
+      <c r="S493" s="3"/>
+      <c r="T493" s="3"/>
+      <c r="U493" s="3"/>
+      <c r="V493" s="3"/>
+      <c r="W493" s="3">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
